--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,14 +838,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 32280-2022</t>
+          <t>A 28849-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44781</v>
+        <v>45478.77283564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -892,36 +892,36 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv
-Sotriska</t>
+          <t>Entita
+Talltita</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
         <v/>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 28849-2024</t>
+          <t>A 32280-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45478.77283564815</v>
+        <v>44781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>8.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,36 +1068,36 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Entita
-Talltita</t>
+          <t>Gulsparv
+Sotriska</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
         <v/>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
         <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45649.61065972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44239</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2574,14 +2574,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37155-2022</t>
+          <t>A 27329-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44806.59059027778</v>
+        <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2631,14 +2631,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27329-2022</t>
+          <t>A 37155-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44742.36770833333</v>
+        <v>44806.59059027778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>44789</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44614</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44293</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3035,14 +3035,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 47057-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>44446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3092,14 +3092,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>44967</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>18</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3149,14 +3149,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 60465-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>45643.61819444445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3320,14 +3320,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47057-2021</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44446</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3434,14 +3434,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>45111.474375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>45771</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>44858</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3719,14 +3719,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3776,14 +3776,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3833,14 +3833,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>45623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3890,14 +3890,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45229</v>
+        <v>44925</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3947,14 +3947,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4004,14 +4004,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44967</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4061,14 +4061,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44741</v>
+        <v>45250</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4118,14 +4118,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45387</v>
+        <v>44357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4137,13 +4137,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>27.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4180,14 +4175,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>44859</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4200,7 +4195,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4237,14 +4232,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45233</v>
+        <v>45278</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4257,7 +4252,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4294,14 +4289,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44858</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4313,8 +4308,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4351,14 +4351,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44859</v>
+        <v>45229</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4408,14 +4408,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58393-2022</t>
+          <t>A 17892-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44901</v>
+        <v>45758.68318287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4465,14 +4465,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11949-2023</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44994</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4522,14 +4522,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45343</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>45896.54557870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4636,14 +4636,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45127</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4693,14 +4693,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45252</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.4</v>
+        <v>17.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>45898.39010416667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4812,14 +4812,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4869,14 +4869,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 41937-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>45903.4413425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4926,14 +4926,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>45252</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4983,14 +4983,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41937-2025</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45903.4413425926</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5040,14 +5040,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5097,14 +5097,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5154,14 +5154,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45359</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5211,14 +5211,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>45404</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5268,14 +5268,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45355</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5325,14 +5325,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>17</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5382,14 +5382,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5401,13 +5401,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5444,14 +5439,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44967</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5464,7 +5459,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5501,14 +5496,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45478</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5521,7 +5516,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5558,14 +5553,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45155</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5578,7 +5573,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5615,14 +5610,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5635,7 +5630,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5672,14 +5667,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46001</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5691,13 +5686,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5741,7 +5731,7 @@
         <v>45924.54122685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5791,14 +5781,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5848,14 +5838,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5868,7 +5858,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5905,14 +5895,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5925,7 +5915,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5962,14 +5952,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5981,13 +5971,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6024,14 +6009,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>45155</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6044,7 +6029,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6081,14 +6066,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6101,7 +6086,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6138,14 +6123,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6158,7 +6143,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6195,14 +6180,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>44924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6215,7 +6200,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6252,14 +6237,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>44642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6272,7 +6257,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6309,14 +6294,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44902</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6329,7 +6314,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6366,14 +6351,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44642</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6386,7 +6371,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6423,14 +6408,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45252</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6443,7 +6428,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6480,14 +6465,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6500,7 +6485,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6537,14 +6522,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44924</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6557,7 +6542,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6594,14 +6579,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45120</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6614,7 +6599,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6651,14 +6636,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6671,7 +6656,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6708,14 +6693,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 6991-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44974</v>
+        <v>44237</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6728,7 +6713,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6765,14 +6750,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6785,7 +6770,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6822,14 +6807,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6842,7 +6827,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6879,14 +6864,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6899,7 +6884,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6943,7 +6928,7 @@
         <v>45944.53710648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6993,14 +6978,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>44767</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7013,7 +6998,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7050,14 +7035,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7069,13 +7054,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7112,14 +7092,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7132,7 +7112,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7169,14 +7149,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5514-2026</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46050.64065972222</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7188,13 +7168,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7231,14 +7206,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7251,7 +7226,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7288,14 +7263,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7308,7 +7283,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7345,14 +7320,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7365,7 +7340,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7402,14 +7377,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7422,7 +7397,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7459,14 +7434,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45958.718125</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7479,7 +7454,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7516,14 +7491,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7536,7 +7511,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7573,14 +7548,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45615</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7593,7 +7568,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7630,14 +7605,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44256</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7650,7 +7625,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7687,14 +7662,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45623</v>
+        <v>45958.718125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7707,7 +7682,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7744,14 +7719,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8789-2021</t>
+          <t>A 246-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44246</v>
+        <v>45660.4183449074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7764,7 +7739,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7801,14 +7776,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45623</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7821,7 +7796,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7858,14 +7833,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 54191-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>45964.57228009259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7878,7 +7853,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7915,14 +7890,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6991-2021</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44237</v>
+        <v>44967</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7935,7 +7910,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7972,14 +7947,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 54826-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45622</v>
+        <v>45966.66918981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7992,7 +7967,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8029,14 +8004,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 54191-2025</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45964.57228009259</v>
+        <v>44741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8049,7 +8024,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8086,14 +8061,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 7760-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>45706.54024305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8106,7 +8081,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8143,14 +8118,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 2086-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45278</v>
+        <v>45672.59024305556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8163,7 +8138,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8200,14 +8175,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 54826-2025</t>
+          <t>A 62527-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45966.66918981481</v>
+        <v>44503</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8220,7 +8195,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>22.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8257,14 +8232,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 53362-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>45614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8277,7 +8252,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8314,14 +8289,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 60290-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>45642.97949074074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8334,7 +8309,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8371,14 +8346,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60290-2024</t>
+          <t>A 35112-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45642.97949074074</v>
+        <v>45529.81975694445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8428,14 +8403,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8448,7 +8423,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8485,14 +8460,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35112-2024</t>
+          <t>A 19759-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45529.81975694445</v>
+        <v>45432.69586805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8505,7 +8480,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8542,14 +8517,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8053-2021</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44243</v>
+        <v>45623</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8562,7 +8537,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8599,14 +8574,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8619,7 +8594,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8656,14 +8631,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44357</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8676,7 +8651,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>27.5</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8713,14 +8688,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8733,7 +8708,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8770,14 +8745,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 36835-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>45538.52260416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8789,8 +8764,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8827,14 +8807,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 58393-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>44901</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8847,7 +8827,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8884,14 +8864,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 62527-2021</t>
+          <t>A 2872-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44503</v>
+        <v>44945.44319444444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8904,7 +8884,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>22.6</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8941,14 +8921,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 11949-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44333</v>
+        <v>44994</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8961,7 +8941,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8998,14 +8978,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 246-2025</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45660.4183449074</v>
+        <v>45233</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9018,7 +8998,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9055,14 +9035,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9075,7 +9055,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9112,14 +9092,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45111.474375</v>
+        <v>46001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9131,8 +9111,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9169,14 +9154,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 60465-2024</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45643.61819444445</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,8 +9173,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9226,14 +9216,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>45623</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9246,7 +9236,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9283,14 +9273,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45145</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9303,7 +9293,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>11.1</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9340,14 +9330,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 53362-2024</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45614</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9360,7 +9350,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9397,14 +9387,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9416,13 +9406,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9459,14 +9444,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9479,7 +9464,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9516,14 +9501,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 19759-2024</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45432.69586805555</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9536,7 +9521,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9573,14 +9558,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,8 +9577,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9630,14 +9620,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>45226</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9650,7 +9640,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9687,14 +9677,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,8 +9696,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>17.4</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9744,14 +9739,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>45229</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9764,7 +9759,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9801,14 +9796,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 5514-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>46050.64065972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,8 +9815,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9858,14 +9858,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>44333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9915,14 +9915,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45260</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>45660.40756944445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10029,14 +10029,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10086,14 +10086,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>45702</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10143,14 +10143,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45702</v>
+        <v>45120</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10200,14 +10200,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>44964</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10257,14 +10257,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45254</v>
+        <v>45145</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>11.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10314,14 +10314,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44964</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10371,14 +10371,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45635</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10428,14 +10428,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10485,14 +10485,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44967</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>18</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10542,14 +10542,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10599,14 +10599,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10656,14 +10656,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45229</v>
+        <v>45623</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10713,14 +10713,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44964</v>
+        <v>45355</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10770,14 +10770,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10827,14 +10827,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10846,8 +10846,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10884,14 +10889,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10904,7 +10909,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10941,14 +10946,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 2872-2023</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44945.44319444444</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10961,7 +10966,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10998,14 +11003,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11018,7 +11023,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7.5</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11055,14 +11060,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>45615</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11075,7 +11080,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11112,14 +11117,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11132,7 +11137,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11169,14 +11174,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36835-2024</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45538.52260416667</v>
+        <v>45359</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11188,13 +11193,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11231,14 +11231,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.1</v>
+        <v>17</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11288,14 +11288,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>44902</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11345,14 +11345,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 2086-2025</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45672.59024305556</v>
+        <v>45622</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11402,14 +11402,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44767</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11459,14 +11459,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11516,14 +11516,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>45174</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11573,14 +11573,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45623</v>
+        <v>45387</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11592,8 +11592,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11630,14 +11635,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53764-2024</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45615</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11650,7 +11655,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11687,14 +11692,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45174</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11707,7 +11712,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11744,14 +11749,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11764,7 +11769,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11801,14 +11806,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45404</v>
+        <v>45478</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11821,7 +11826,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11858,14 +11863,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11878,7 +11883,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11915,14 +11920,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45226</v>
+        <v>45254</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11935,7 +11940,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11972,14 +11977,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 7760-2025</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45706.54024305556</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11992,7 +11997,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12029,14 +12034,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 8789-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45623</v>
+        <v>44246</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12049,7 +12054,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12086,14 +12091,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>45343</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12106,7 +12111,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12143,14 +12148,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12163,7 +12168,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12200,14 +12205,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>45127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12220,7 +12225,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12257,14 +12262,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 53764-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>45615</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12277,7 +12282,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12314,14 +12319,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12334,7 +12339,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12371,14 +12376,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12391,7 +12396,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12428,14 +12433,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>44967</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12448,7 +12453,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12485,14 +12490,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45615</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12505,7 +12510,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12542,14 +12547,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12562,7 +12567,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12599,14 +12604,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12619,7 +12624,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12656,14 +12661,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>44964</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12676,7 +12681,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12713,14 +12718,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 8053-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>44243</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12733,7 +12738,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12770,14 +12775,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45727</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12789,13 +12794,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12832,14 +12832,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45229</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12889,14 +12889,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12946,14 +12946,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>45635</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13003,14 +13003,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13060,14 +13060,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13117,14 +13117,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 24234-2025</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45797.3800462963</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13174,14 +13174,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13231,14 +13231,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45771</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13288,14 +13288,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44925</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13345,14 +13345,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45250</v>
+        <v>45615</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13402,14 +13402,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13421,13 +13421,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13464,14 +13459,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 17892-2025</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45758.68318287037</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13484,7 +13479,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13521,14 +13516,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13541,7 +13536,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13578,14 +13573,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13598,7 +13593,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13635,14 +13630,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13655,7 +13650,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13692,14 +13687,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13712,7 +13707,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13749,14 +13744,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 24234-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>45797.3800462963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13769,7 +13764,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13806,14 +13801,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13826,7 +13821,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13863,14 +13858,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>45229</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13883,7 +13878,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13920,14 +13915,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13940,7 +13935,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13977,14 +13972,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13997,7 +13992,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14034,14 +14029,14 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45252</v>
+        <v>45727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14053,8 +14048,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45478.77283564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45649.61065972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44239</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44806.59059027778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44789</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44614</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44293</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44967</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>45643.61819444445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45590.47016203704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>45702.55347222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45111.474375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45189.83261574074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>45771</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44858</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45885.05005787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45611.58608796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45375.3290625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>45623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44925</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45590.55582175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44819.51783564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>45250</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>44859</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>45278</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45538.69571759259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45229</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45758.68318287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44928.51184027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44902.59869212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45896.54557870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45670.31842592593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44806.60627314815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45898.39010416667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45702.48797453703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45903.4413425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45252</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>45904.46631944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45824.65635416667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45702.55677083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>45906.38402777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>45404</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>45824.84045138889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45601.60918981482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>45090.4546412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45916.45898148148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>45826.32145833333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>45747.40619212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45086.36361111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>45125.49396990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>45924.54122685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>45280.97847222222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>45184.35591435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45834.60144675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45834.58232638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45155</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>45837.53755787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45837.55134259259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45642.89546296297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45264.56998842592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>45252</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>45940.59814814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45943.09372685185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45805.8687037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45940.60710648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44237</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45943.08944444444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45943.09143518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45846.44829861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45944.53710648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44767</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44998.54354166667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45867.44418981481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45867.46184027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45957.3331712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45954.87305555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>44979.47184027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>45875.66164351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45875.52809027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>45876.5759375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>45755.47385416667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45958.7215625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45958.718125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45660.4183449074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45964.57034722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45964.57228009259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44967</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45966.66918981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>44741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45706.54024305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>45672.59024305556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44503</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45642.97949074074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45529.81975694445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>45978.48229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45432.69586805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45623</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45672.34460648148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45665.32771990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>45141.53666666667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45538.52260416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44901</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44945.44319444444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44994</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45233</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45232.69478009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>46001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45538.4906712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45623</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45527.64486111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45462.77667824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>45757.47178240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45767.38868055555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45988.53849537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45506.38613425926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45226</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>46006.75179398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45229</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>46050.64065972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45084.62170138889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45660.40756944445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45226.44390046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45702</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45120</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44964</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45145</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45679.5387962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44960.49412037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45111.60274305556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45357.44467592592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44851.61994212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45006.35238425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45623</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45355</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45642.57456018519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45506.42094907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45642.58109953703</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>44503.6196875</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11010,7 +11010,7 @@
         <v>45625.56277777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>45615</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45366.53228009259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45359</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44845.58590277778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44902</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>45622</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45727.56306712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>45174</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45387</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45169.50835648148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45153.50684027778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>44503.61209490741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45478</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>45574.86268518519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>45254</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45625.32438657407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>44246</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45343</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>45554.68796296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>45127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>45615</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>45701.72737268519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45188.64850694445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44967</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>45006.38202546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>45527.70637731482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>45615.52787037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44964</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44243</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45426.5609837963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45244.3609375</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45568.70137731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45635</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>45776.25559027777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45649.60460648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>45363.68083333333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45625.3313425926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45713.66717592593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45790.37597222222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45615</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>45712.5903587963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45790.44003472223</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45726.57238425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45726.56342592592</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45797.58983796297</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45797.38863425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45797.3800462963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45797.59305555555</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45229</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45797.58431712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45572.62975694444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45478.77283564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45649.61065972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44239</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44806.59059027778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44789</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44614</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44293</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44967</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>45643.61819444445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45590.47016203704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>45702.55347222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45111.474375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45189.83261574074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>45771</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44858</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45885.05005787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45611.58608796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45375.3290625</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>45623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44925</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>45590.55582175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44819.51783564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>45250</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>44859</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>45278</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45538.69571759259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45229</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45758.68318287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44928.51184027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44902.59869212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45896.54557870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45670.31842592593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44806.60627314815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>45898.39010416667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45702.48797453703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45903.4413425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45252</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>45904.46631944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45824.65635416667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45702.55677083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>45906.38402777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>45404</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>45824.84045138889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45601.60918981482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>45090.4546412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45916.45898148148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>45826.32145833333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>45747.40619212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45086.36361111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>45125.49396990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>45924.54122685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>45280.97847222222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>45184.35591435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45834.60144675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45834.58232638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45155</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>45837.53755787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45837.55134259259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44924</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45642.89546296297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>45264.56998842592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>45252</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>45940.59814814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45943.09372685185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45805.8687037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45940.60710648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44237</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45943.08944444444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45943.09143518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45846.44829861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45944.53710648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>44767</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44998.54354166667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45867.44418981481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45867.46184027778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>45957.3331712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>45954.87305555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>44979.47184027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>45875.66164351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45875.52809027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>45876.5759375</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>45755.47385416667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45958.7215625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45958.718125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45660.4183449074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45964.57034722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45964.57228009259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44967</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45966.66918981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>44741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45706.54024305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>45672.59024305556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44503</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45614</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45642.97949074074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45529.81975694445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>45978.48229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45432.69586805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45623</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45672.34460648148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45665.32771990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>45141.53666666667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45538.52260416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>44901</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>44945.44319444444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44994</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45233</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45232.69478009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>46001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45538.4906712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45623</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45527.64486111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45462.77667824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>45757.47178240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45767.38868055555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45988.53849537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45506.38613425926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45226</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>46006.75179398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45229</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>46050.64065972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45084.62170138889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45660.40756944445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45226.44390046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45702</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45120</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44964</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45145</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45679.5387962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44960.49412037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45111.60274305556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45357.44467592592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44851.61994212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45006.35238425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45623</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45355</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45642.57456018519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45506.42094907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45642.58109953703</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>44503.6196875</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11010,7 +11010,7 @@
         <v>45625.56277777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>45615</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45366.53228009259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45359</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44845.58590277778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44902</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>45622</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45727.56306712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>45174</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45387</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45169.50835648148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45153.50684027778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>44503.61209490741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45478</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>45574.86268518519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>45254</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45625.32438657407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>44246</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45343</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>45554.68796296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>45127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>45615</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>45701.72737268519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45188.64850694445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44967</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>45006.38202546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>45527.70637731482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>45615.52787037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44964</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>44243</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45426.5609837963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45244.3609375</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45568.70137731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45635</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>45776.25559027777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45649.60460648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>45363.68083333333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45625.3313425926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45713.66717592593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45790.37597222222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45615</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>45712.5903587963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45790.44003472223</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45726.57238425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45726.56342592592</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45797.58983796297</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45797.38863425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45797.3800462963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45797.59305555555</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45229</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45797.58431712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45572.62975694444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45727</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z232"/>
+  <dimension ref="A1:Z233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,14 +838,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 28849-2024</t>
+          <t>A 32280-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45478.77283564815</v>
+        <v>44781</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -892,36 +892,36 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Entita
-Talltita</t>
+          <t>Gulsparv
+Sotriska</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
         <v/>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 32280-2022</t>
+          <t>A 28849-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44781</v>
+        <v>45478.77283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8.6</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,36 +1068,36 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv
-Sotriska</t>
+          <t>Entita
+Talltita</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
         <v/>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
         <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 10476-2023</t>
+          <t>A 61818-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44987</v>
+        <v>45649.61065972222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1248,127 +1248,127 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Rödvingetrast</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 10476-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 61818-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45649.61065972222</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Rödvingetrast</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,14 +2227,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47048-2021</t>
+          <t>A 57990-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44446</v>
+        <v>44487.40418981481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 57990-2021</t>
+          <t>A 47048-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44487.40418981481</v>
+        <v>44446</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>44239</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2460,14 +2460,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24952-2021</t>
+          <t>A 24913-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 24913-2021</t>
+          <t>A 24952-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>44341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44806.59059027778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44789</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44614</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44293</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3092,14 +3092,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44967</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>18</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3149,14 +3149,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44974</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60465-2024</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45643.61819444445</v>
+        <v>45229</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45260</v>
+        <v>44859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3320,14 +3320,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>45343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>45252</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45111.474375</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>45359</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45771</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44858</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3624,8 +3624,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3662,14 +3667,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3682,7 +3687,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3719,14 +3724,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>45478</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3739,7 +3744,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3776,14 +3781,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>45155</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3796,7 +3801,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3833,14 +3838,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45623</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3852,8 +3857,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3890,14 +3900,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44925</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3920,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3947,14 +3957,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3967,7 +3977,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4004,14 +4014,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4024,7 +4034,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4061,14 +4071,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45250</v>
+        <v>44902</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4081,7 +4091,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4118,14 +4128,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44357</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4138,7 +4148,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>27.5</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4175,14 +4185,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44859</v>
+        <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4195,7 +4205,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4232,14 +4242,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45278</v>
+        <v>44974</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4252,7 +4262,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4289,14 +4299,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,13 +4318,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4351,14 +4356,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45229</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4371,7 +4376,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4408,14 +4413,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17892-2025</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45758.68318287037</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4428,7 +4433,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4465,14 +4470,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4485,7 +4490,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4522,14 +4527,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4542,7 +4547,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4579,14 +4584,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40592-2025</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45896.54557870371</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4599,7 +4604,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4636,14 +4641,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4656,7 +4661,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4693,14 +4698,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4713,7 +4718,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>17.4</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4750,14 +4755,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41039-2025</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45898.39010416667</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,13 +4774,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4812,14 +4812,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>45615</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4869,14 +4869,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41937-2025</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45903.4413425926</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4926,14 +4926,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45252</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4983,14 +4983,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>44256</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5040,14 +5040,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>45623</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5097,14 +5097,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 8789-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>44246</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5154,14 +5154,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>45623</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5211,14 +5211,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 6991-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45404</v>
+        <v>44237</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5268,14 +5268,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>45622</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5325,14 +5325,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 40592-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>45896.54557870371</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5382,14 +5382,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5439,14 +5439,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>45278</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5496,14 +5496,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 41039-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>45898.39010416667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5515,8 +5515,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5553,14 +5558,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5573,7 +5578,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5610,14 +5615,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5630,7 +5635,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5667,14 +5672,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>45252</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5687,7 +5692,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5724,14 +5729,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46097-2025</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45924.54122685185</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5744,7 +5749,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5781,14 +5786,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5801,7 +5806,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5838,14 +5843,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 60290-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>45642.97949074074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5858,7 +5863,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5895,14 +5900,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5915,7 +5920,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5952,14 +5957,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 8053-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>44243</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5972,7 +5977,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6009,14 +6014,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 41937-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45155</v>
+        <v>45903.4413425926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6029,7 +6034,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6066,14 +6071,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6086,7 +6091,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6123,14 +6128,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>44357</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6143,7 +6148,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>27.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6180,14 +6185,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44924</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6200,7 +6205,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6237,14 +6242,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44642</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6257,7 +6262,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6294,14 +6299,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6314,7 +6319,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6351,14 +6356,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6371,7 +6376,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6408,14 +6413,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45252</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6428,7 +6433,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6465,14 +6470,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6485,7 +6490,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6522,14 +6527,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6542,7 +6547,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6579,14 +6584,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6599,7 +6604,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6636,14 +6641,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 62527-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>44503</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6656,7 +6661,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>22.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6693,14 +6698,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 6991-2021</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44237</v>
+        <v>44333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6713,7 +6718,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6750,14 +6755,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>44967</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6770,7 +6775,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6807,14 +6812,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>44741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6827,7 +6832,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6864,14 +6869,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 46097-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45924.54122685185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6884,7 +6889,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6921,14 +6926,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50343-2025</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45944.53710648148</v>
+        <v>44858</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6941,7 +6946,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6978,14 +6983,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44767</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6998,7 +7003,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7035,14 +7040,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7055,7 +7060,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7092,14 +7097,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7112,7 +7117,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7149,14 +7154,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>44642</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7169,7 +7174,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7206,14 +7211,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7226,7 +7231,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7263,14 +7268,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7283,7 +7288,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7320,14 +7325,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>44924</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7340,7 +7345,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7377,14 +7382,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7397,7 +7402,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7434,14 +7439,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7454,7 +7459,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7491,14 +7496,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7548,14 +7553,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7568,7 +7573,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7605,14 +7610,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7625,7 +7630,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7662,14 +7667,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45958.718125</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7682,7 +7687,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7719,14 +7724,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 246-2025</t>
+          <t>A 50343-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45660.4183449074</v>
+        <v>45944.53710648148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7739,7 +7744,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7776,14 +7781,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7796,7 +7801,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7833,14 +7838,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54191-2025</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45964.57228009259</v>
+        <v>45387</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,8 +7857,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7890,14 +7900,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44967</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7910,7 +7920,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7947,14 +7957,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54826-2025</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45966.66918981481</v>
+        <v>45233</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7967,7 +7977,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8004,14 +8014,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 58393-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44741</v>
+        <v>44901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8024,7 +8034,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8061,14 +8071,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7760-2025</t>
+          <t>A 11949-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45706.54024305556</v>
+        <v>44994</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8081,7 +8091,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8118,14 +8128,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 2086-2025</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45672.59024305556</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8138,7 +8148,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8175,14 +8185,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 62527-2021</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44503</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8195,7 +8205,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>22.6</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8232,14 +8242,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53362-2024</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45614</v>
+        <v>45958.718125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8252,7 +8262,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8289,14 +8299,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 60290-2024</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45642.97949074074</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8309,7 +8319,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8346,14 +8356,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35112-2024</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45529.81975694445</v>
+        <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8366,7 +8376,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8403,14 +8413,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8423,7 +8433,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8460,14 +8470,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 19759-2024</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45432.69586805555</v>
+        <v>45355</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8480,7 +8490,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8517,14 +8527,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45623</v>
+        <v>44967</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8537,7 +8547,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8574,14 +8584,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8594,7 +8604,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8631,14 +8641,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8651,7 +8661,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8688,14 +8698,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8708,7 +8718,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8745,14 +8755,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 36835-2024</t>
+          <t>A 54191-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45538.52260416667</v>
+        <v>45964.57228009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8764,13 +8774,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8807,14 +8812,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58393-2022</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44901</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8827,7 +8832,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8864,14 +8869,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2872-2023</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44945.44319444444</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8884,7 +8889,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8921,14 +8926,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11949-2023</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44994</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8941,7 +8946,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8978,14 +8983,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 54826-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45233</v>
+        <v>45966.66918981481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8998,7 +9003,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9035,14 +9040,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9055,7 +9060,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9092,14 +9097,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46001</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9111,13 +9116,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9154,14 +9154,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 35112-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>45529.81975694445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9173,13 +9173,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9216,14 +9211,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45623</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9236,7 +9231,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9273,14 +9268,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9293,7 +9288,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9330,14 +9325,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 246-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>45660.4183449074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9350,7 +9345,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9387,14 +9382,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9444,14 +9439,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>45111.474375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9464,7 +9459,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9501,14 +9496,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 60465-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>45643.61819444445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9521,7 +9516,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9558,14 +9553,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,13 +9572,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9620,14 +9610,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45226</v>
+        <v>45145</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9640,7 +9630,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>11.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9677,14 +9667,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 53362-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>45614</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9696,13 +9686,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9739,14 +9724,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45229</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,8 +9743,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9796,14 +9786,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5514-2026</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46050.64065972222</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,13 +9805,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9858,14 +9843,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 19759-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44333</v>
+        <v>45432.69586805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9915,14 +9900,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9935,7 +9920,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9972,14 +9957,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 240-2025</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45660.40756944445</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9992,7 +9977,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10029,14 +10014,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>46001</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,8 +10033,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10086,14 +10076,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45702</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10106,7 +10096,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>17.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10143,14 +10133,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45120</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10163,7 +10153,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10200,14 +10190,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44964</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10220,7 +10210,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10257,14 +10247,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45145</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10277,7 +10267,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>11.1</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10314,14 +10304,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>45260</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10371,14 +10361,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10391,7 +10381,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10428,14 +10418,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 240-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>45660.40756944445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10448,7 +10438,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10485,14 +10475,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10505,7 +10495,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10542,14 +10532,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10561,8 +10551,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10599,14 +10594,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 5514-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>46050.64065972222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10618,8 +10613,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10656,14 +10656,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45623</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10713,14 +10713,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45355</v>
+        <v>45702</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10770,14 +10770,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10827,14 +10827,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>45254</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10846,13 +10846,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10889,14 +10884,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>44964</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10909,7 +10904,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10946,14 +10941,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>45635</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10966,7 +10961,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11003,14 +10998,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 7592-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>46061.87305555555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11023,7 +11018,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11060,14 +11055,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45615</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11080,7 +11075,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11117,14 +11112,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>44967</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11137,7 +11132,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>18</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11174,14 +11169,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45359</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11194,7 +11189,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11231,14 +11226,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11251,7 +11246,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11288,14 +11283,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44902</v>
+        <v>45229</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11308,7 +11303,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11345,14 +11340,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45622</v>
+        <v>44964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11365,7 +11360,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11402,14 +11397,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11422,7 +11417,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11459,14 +11454,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44256</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11479,7 +11474,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11516,14 +11511,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45174</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11536,7 +11531,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11573,14 +11568,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 2872-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45387</v>
+        <v>44945.44319444444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11592,13 +11587,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11635,14 +11625,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11655,7 +11645,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11692,14 +11682,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11712,7 +11702,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11749,14 +11739,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11769,7 +11759,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11806,14 +11796,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 36835-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45478</v>
+        <v>45538.52260416667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11825,8 +11815,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11863,14 +11858,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11883,7 +11878,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11920,14 +11915,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45254</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11940,7 +11935,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11977,14 +11972,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 2086-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>45672.59024305556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11997,7 +11992,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12034,14 +12029,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8789-2021</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44246</v>
+        <v>44767</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12054,7 +12049,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12091,14 +12086,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45343</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12111,7 +12106,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12148,14 +12143,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12168,7 +12163,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12205,14 +12200,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45127</v>
+        <v>45623</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12225,7 +12220,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12269,7 +12264,7 @@
         <v>45615</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12319,14 +12314,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>45174</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12339,7 +12334,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12376,14 +12371,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12396,7 +12391,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12433,14 +12428,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44967</v>
+        <v>45404</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12453,7 +12448,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12490,14 +12485,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12510,7 +12505,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12547,14 +12542,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>45226</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12567,7 +12562,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12604,14 +12599,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 7760-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>45706.54024305556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12624,7 +12619,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12661,14 +12656,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44964</v>
+        <v>45623</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12681,7 +12676,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12718,14 +12713,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8053-2021</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44243</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12738,7 +12733,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12775,14 +12770,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12795,7 +12790,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12832,14 +12827,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12852,7 +12847,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12889,14 +12884,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12909,7 +12904,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12946,14 +12941,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45635</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12966,7 +12961,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13003,14 +12998,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13023,7 +13018,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13060,14 +13055,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13080,7 +13075,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13117,14 +13112,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>45615</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13137,7 +13132,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13174,14 +13169,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13194,7 +13189,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13231,14 +13226,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13251,7 +13246,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13288,14 +13283,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13308,7 +13303,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13345,14 +13340,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45615</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13365,7 +13360,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13402,14 +13397,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45727</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13421,8 +13416,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13459,14 +13459,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>45229</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13516,14 +13516,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13573,14 +13573,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13630,14 +13630,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13687,14 +13687,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>45797.3800462963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13801,14 +13801,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13858,14 +13858,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45229</v>
+        <v>45771</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>8.5</v>
+        <v>0.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13915,14 +13915,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>44925</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13972,14 +13972,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45250</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14026,17 +14026,17 @@
       </c>
       <c r="R231" s="2" t="inlineStr"/>
     </row>
-    <row r="232">
+    <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45727</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14087,6 +14087,63 @@
         <v>0</v>
       </c>
       <c r="R232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>A 17892-2025</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>45758.68318287037</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z233"/>
+  <dimension ref="A1:Z232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 4831-2025</t>
+          <t>A 47321-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45688</v>
+        <v>45202.50942129629</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,25 +680,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -707,134 +707,134 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Kråka
+Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 47321-2023 artfynd.xlsx", "A 47321-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 47321-2023 karta.png", "A 47321-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 47321-2023 FSC-klagomål.docx", "A 47321-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 47321-2023 FSC-klagomål mail.docx", "A 47321-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 47321-2023 tillsynsbegäran.docx", "A 47321-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 47321-2023 tillsynsbegäran mail.docx", "A 47321-2023")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 47321-2023 prioriterade fågelarter.docx", "A 47321-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 4831-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Ask
 Barkticka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 4831-2025 artfynd.xlsx", "A 4831-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 4831-2025 karta.png", "A 4831-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 4831-2025 FSC-klagomål.docx", "A 4831-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 4831-2025 FSC-klagomål mail.docx", "A 4831-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 4831-2025 tillsynsbegäran.docx", "A 4831-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 4831-2025 tillsynsbegäran mail.docx", "A 4831-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 47321-2023</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45202.50942129629</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Kråka
-Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 47321-2023 artfynd.xlsx", "A 47321-2023")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 47321-2023 karta.png", "A 47321-2023")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 47321-2023 FSC-klagomål.docx", "A 47321-2023")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 47321-2023 FSC-klagomål mail.docx", "A 47321-2023")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 47321-2023 tillsynsbegäran.docx", "A 47321-2023")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 47321-2023 tillsynsbegäran mail.docx", "A 47321-2023")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 47321-2023 prioriterade fågelarter.docx", "A 47321-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44781</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,14 +928,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 15219-2024</t>
+          <t>A 7261-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45400</v>
+        <v>45702.58821759259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,19 +948,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -972,42 +972,46 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Tallticka
-Tårkragskivling</t>
+          <t>Knärot
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 15219-2024 artfynd.xlsx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 7261-2025 artfynd.xlsx", "A 7261-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 15219-2024 karta.png", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 7261-2025 karta.png", "A 7261-2025")</f>
         <v/>
       </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/knärot/A 7261-2025 karta knärot.png", "A 7261-2025")</f>
+        <v/>
+      </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 15219-2024 FSC-klagomål.docx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 7261-2025 FSC-klagomål.docx", "A 7261-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 15219-2024 FSC-klagomål mail.docx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 7261-2025 FSC-klagomål mail.docx", "A 7261-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 15219-2024 tillsynsbegäran.docx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 7261-2025 tillsynsbegäran.docx", "A 7261-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 15219-2024 tillsynsbegäran mail.docx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 7261-2025 tillsynsbegäran mail.docx", "A 7261-2025")</f>
         <v/>
       </c>
     </row>
@@ -1021,7 +1025,7 @@
         <v>45478.77283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,14 +1108,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 7261-2025</t>
+          <t>A 15219-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45702.58821759259</v>
+        <v>45400</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,19 +1128,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1148,60 +1152,56 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Knärot
-Västlig hakmossa</t>
+          <t>Tallticka
+Tårkragskivling</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 7261-2025 artfynd.xlsx", "A 7261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 15219-2024 artfynd.xlsx", "A 15219-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 7261-2025 karta.png", "A 7261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 15219-2024 karta.png", "A 15219-2024")</f>
         <v/>
       </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/knärot/A 7261-2025 karta knärot.png", "A 7261-2025")</f>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 15219-2024 FSC-klagomål.docx", "A 15219-2024")</f>
         <v/>
       </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 7261-2025 FSC-klagomål.docx", "A 7261-2025")</f>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 15219-2024 FSC-klagomål mail.docx", "A 15219-2024")</f>
         <v/>
       </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 7261-2025 FSC-klagomål mail.docx", "A 7261-2025")</f>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 15219-2024 tillsynsbegäran.docx", "A 15219-2024")</f>
         <v/>
       </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 7261-2025 tillsynsbegäran.docx", "A 7261-2025")</f>
-        <v/>
-      </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 7261-2025 tillsynsbegäran mail.docx", "A 7261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 15219-2024 tillsynsbegäran mail.docx", "A 15219-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 61818-2024</t>
+          <t>A 10476-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45649.61065972222</v>
+        <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1248,127 +1248,127 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 61818-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45649.61065972222</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Rödvingetrast</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 10476-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,14 +2227,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57990-2021</t>
+          <t>A 47048-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44487.40418981481</v>
+        <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47048-2021</t>
+          <t>A 57990-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44446</v>
+        <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>44239</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2460,14 +2460,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24913-2021</t>
+          <t>A 24952-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 24952-2021</t>
+          <t>A 24913-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>44341</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2574,14 +2574,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 27329-2022</t>
+          <t>A 37155-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44742.36770833333</v>
+        <v>44806.59059027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2631,14 +2631,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 37155-2022</t>
+          <t>A 27329-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44806.59059027778</v>
+        <v>44742.36770833333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2688,14 +2688,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33654-2022</t>
+          <t>A 65341-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44789</v>
+        <v>44515.64600694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2745,14 +2745,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 65341-2021</t>
+          <t>A 33654-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44515.64600694444</v>
+        <v>44789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44614</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44293</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3092,14 +3092,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 53764-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>45615</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3149,14 +3149,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>44967</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>18</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3206,14 +3206,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45229</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3320,14 +3320,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45343</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45252</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 40592-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>45896.54557870371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45359</v>
+        <v>44974</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 60465-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>45643.61819444445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3624,13 +3624,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3667,14 +3662,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>44967</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3687,7 +3682,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3724,14 +3719,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45478</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3744,7 +3739,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3781,14 +3776,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45155</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3801,7 +3796,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3838,14 +3833,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>45260</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3857,13 +3852,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3900,14 +3890,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3920,7 +3910,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3957,14 +3947,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>44964</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3977,7 +3967,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4014,14 +4004,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 8053-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>44243</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4024,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4071,14 +4061,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44902</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4081,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4128,14 +4118,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 41039-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>45898.39010416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4147,8 +4137,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4185,14 +4180,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45120</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4205,7 +4200,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4242,14 +4237,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44974</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4262,7 +4257,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4299,14 +4294,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 41937-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>45903.4413425926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4356,14 +4351,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4376,7 +4371,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4413,14 +4408,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>45111.474375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4433,7 +4428,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4470,14 +4465,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4490,7 +4485,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4527,14 +4522,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>45635</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4547,7 +4542,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4584,14 +4579,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4604,7 +4599,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4641,14 +4636,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4661,7 +4656,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4698,14 +4693,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4718,7 +4713,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4755,14 +4750,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4775,7 +4770,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4812,14 +4807,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45615</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4832,7 +4827,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4869,14 +4864,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4889,7 +4884,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4926,14 +4921,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4946,7 +4941,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4983,14 +4978,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44256</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5003,7 +4998,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5040,14 +5035,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45623</v>
+        <v>45615</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5060,7 +5055,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5097,14 +5092,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8789-2021</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44246</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5117,7 +5112,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5154,14 +5149,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45623</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5174,7 +5169,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5211,14 +5206,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6991-2021</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44237</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5231,7 +5226,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5268,14 +5263,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45622</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5288,7 +5283,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5325,14 +5320,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40592-2025</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45896.54557870371</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5345,7 +5340,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5382,14 +5377,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5402,7 +5397,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5439,14 +5434,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45278</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5459,7 +5454,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5496,14 +5491,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41039-2025</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45898.39010416667</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5515,13 +5510,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5558,14 +5548,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5578,7 +5568,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5615,14 +5605,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45623</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5635,7 +5625,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5672,14 +5662,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 24234-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45252</v>
+        <v>45797.3800462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5692,7 +5682,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5729,14 +5719,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5749,7 +5739,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5786,14 +5776,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>45229</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5806,7 +5796,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>8.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5843,14 +5833,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60290-2024</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45642.97949074074</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5863,7 +5853,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5900,14 +5890,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5920,7 +5910,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5957,14 +5947,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8053-2021</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44243</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5977,7 +5967,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6014,14 +6004,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41937-2025</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45903.4413425926</v>
+        <v>45727</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6033,8 +6023,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6071,14 +6066,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>45771</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6091,7 +6086,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6128,14 +6123,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44357</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6148,7 +6143,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>27.5</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6185,14 +6180,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>44357</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6205,7 +6200,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>27.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6242,14 +6237,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>44859</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6262,7 +6257,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6299,14 +6294,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>45278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6319,7 +6314,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6356,14 +6351,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>45229</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6376,7 +6371,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6413,14 +6408,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>44925</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6433,7 +6428,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6470,14 +6465,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6490,7 +6485,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6527,14 +6522,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6547,7 +6542,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6584,14 +6579,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6604,7 +6599,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6641,14 +6636,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62527-2021</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44503</v>
+        <v>45250</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6661,7 +6656,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>22.6</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6698,14 +6693,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44333</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6718,7 +6713,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>17.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6755,14 +6750,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44967</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6775,7 +6770,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6812,14 +6807,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44741</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,8 +6826,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>45924.54122685185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6926,14 +6926,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 17892-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44858</v>
+        <v>45758.68318287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6983,14 +6983,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>45252</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7040,14 +7040,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7097,14 +7097,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45404</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7154,14 +7154,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44642</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7211,14 +7211,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7268,14 +7268,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7325,14 +7325,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44924</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7382,14 +7382,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7439,14 +7439,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7496,14 +7496,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7553,14 +7553,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7610,14 +7610,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7667,14 +7667,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7724,14 +7724,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50343-2025</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45944.53710648148</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7781,14 +7781,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7838,14 +7838,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45387</v>
+        <v>44924</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,13 +7857,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7900,14 +7895,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>44642</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7920,7 +7915,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7957,14 +7952,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45233</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7977,7 +7972,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8014,14 +8009,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58393-2022</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44901</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8034,7 +8029,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8071,14 +8066,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11949-2023</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44994</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8128,14 +8123,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>45155</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8148,7 +8143,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8185,14 +8180,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>45252</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8205,7 +8200,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8242,14 +8237,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45958.718125</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8262,7 +8257,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8299,14 +8294,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8319,7 +8314,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8356,14 +8351,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45127</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8376,7 +8371,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8413,14 +8408,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8433,7 +8428,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8470,14 +8465,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45355</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8490,7 +8485,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8527,14 +8522,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44967</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8547,7 +8542,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8584,14 +8579,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8604,7 +8599,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8641,14 +8636,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>44767</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8661,7 +8656,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8698,14 +8693,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8718,7 +8713,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8755,14 +8750,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54191-2025</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45964.57228009259</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8775,7 +8770,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8812,14 +8807,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8832,7 +8827,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8869,14 +8864,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8889,7 +8884,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8926,14 +8921,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 50343-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45944.53710648148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8946,7 +8941,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8983,14 +8978,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54826-2025</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45966.66918981481</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9003,7 +8998,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9040,14 +9035,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9060,7 +9055,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9097,14 +9092,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9117,7 +9112,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9154,14 +9149,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 35112-2024</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45529.81975694445</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9174,7 +9169,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9211,14 +9206,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>44967</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9231,7 +9226,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9268,14 +9263,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>44741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9288,7 +9283,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9325,14 +9320,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 246-2025</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45660.4183449074</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9345,7 +9340,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9382,14 +9377,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 246-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>45660.4183449074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9402,7 +9397,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9439,14 +9434,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45111.474375</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9459,7 +9454,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9496,14 +9491,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60465-2024</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45643.61819444445</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9516,7 +9511,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9553,14 +9548,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 7760-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>45706.54024305556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9573,7 +9568,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9610,14 +9605,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 2086-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45145</v>
+        <v>45672.59024305556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9630,7 +9625,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>11.1</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9667,14 +9662,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53362-2024</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45614</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9687,7 +9682,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9724,14 +9719,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 62527-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>44503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9743,13 +9738,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>4.3</v>
+        <v>22.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9786,14 +9776,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>45958.718125</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9806,7 +9796,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9843,14 +9833,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 19759-2024</t>
+          <t>A 53362-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45432.69586805555</v>
+        <v>45614</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9863,7 +9853,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9900,14 +9890,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 60290-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>45642.97949074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9920,7 +9910,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9957,14 +9947,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9977,7 +9967,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10014,14 +10004,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 54191-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46001</v>
+        <v>45964.57228009259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,13 +10023,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10076,14 +10061,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 35112-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>45529.81975694445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10096,7 +10081,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>17.4</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10133,14 +10118,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 19759-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>45432.69586805555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10153,7 +10138,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10190,14 +10175,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 54826-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>45966.66918981481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10210,7 +10195,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10247,14 +10232,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>45623</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10267,7 +10252,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10304,14 +10289,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45260</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10324,7 +10309,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10361,14 +10346,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10381,7 +10366,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10418,14 +10403,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 240-2025</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45660.40756944445</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10438,7 +10423,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10475,14 +10460,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10495,7 +10480,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10532,14 +10517,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 36835-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>45538.52260416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10557,7 +10542,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10594,14 +10579,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5514-2026</t>
+          <t>A 58393-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46050.64065972222</v>
+        <v>44901</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,13 +10598,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10656,14 +10636,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 2872-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>44945.44319444444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10676,7 +10656,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10713,14 +10693,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 11949-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45702</v>
+        <v>44994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10733,7 +10713,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10770,14 +10750,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>45233</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10790,7 +10770,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10827,14 +10807,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45254</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10847,7 +10827,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10884,14 +10864,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44964</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10903,8 +10883,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10941,14 +10926,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45635</v>
+        <v>46001</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10960,8 +10945,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10998,14 +10988,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7592-2026</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46061.87305555555</v>
+        <v>45623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11018,7 +11008,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11055,14 +11045,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11075,7 +11065,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11112,14 +11102,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44967</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11132,7 +11122,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>18</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11169,14 +11159,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11189,7 +11179,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11226,14 +11216,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11246,7 +11236,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11283,14 +11273,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45229</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11302,8 +11292,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11340,14 +11335,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44964</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11360,7 +11355,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11397,14 +11392,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>45226</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11417,7 +11412,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11454,14 +11449,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>45229</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11474,7 +11469,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11511,14 +11506,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11530,8 +11525,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11568,14 +11568,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2872-2023</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44945.44319444444</v>
+        <v>44333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11625,14 +11625,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11682,14 +11682,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 5514-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>46050.64065972222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11701,8 +11701,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11739,14 +11744,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 240-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>45660.40756944445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11759,7 +11764,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11796,14 +11801,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36835-2024</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45538.52260416667</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11815,13 +11820,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11858,14 +11858,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>45702</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11915,14 +11915,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>45120</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11972,14 +11972,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 2086-2025</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45672.59024305556</v>
+        <v>44964</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44767</v>
+        <v>45145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12143,14 +12143,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12200,14 +12200,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45623</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53764-2024</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45615</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12314,14 +12314,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45174</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12371,14 +12371,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 7592-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45404</v>
+        <v>46061.87305555555</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>45623</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12542,14 +12542,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45226</v>
+        <v>45355</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12599,14 +12599,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7760-2025</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45706.54024305556</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>8.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12656,14 +12656,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45623</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12675,8 +12675,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12713,14 +12718,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12733,7 +12738,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12770,14 +12775,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12790,7 +12795,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12827,14 +12832,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12847,7 +12852,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12884,14 +12889,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>45615</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12904,7 +12909,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12941,14 +12946,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12961,7 +12966,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12998,14 +13003,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45359</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13018,7 +13023,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13055,14 +13060,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13075,7 +13080,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.7</v>
+        <v>17</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13112,14 +13117,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45615</v>
+        <v>44902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13132,7 +13137,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13169,14 +13174,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45622</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13189,7 +13194,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13226,14 +13231,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13246,7 +13251,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13283,14 +13288,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>44256</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13303,7 +13308,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13340,14 +13345,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>45174</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13360,7 +13365,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13397,14 +13402,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45727</v>
+        <v>45387</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13418,11 +13423,11 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13459,14 +13464,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45229</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13479,7 +13484,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13516,14 +13521,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13536,7 +13541,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13573,14 +13578,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13593,7 +13598,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13630,14 +13635,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45478</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13650,7 +13655,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13687,14 +13692,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13707,7 +13712,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13744,14 +13749,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 24234-2025</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45797.3800462963</v>
+        <v>45254</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13764,7 +13769,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13801,14 +13806,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13821,7 +13826,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13858,14 +13863,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 8789-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45771</v>
+        <v>44246</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13878,7 +13883,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13915,14 +13920,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44925</v>
+        <v>45343</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13935,7 +13940,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13972,14 +13977,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45250</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13992,7 +13997,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14026,17 +14031,17 @@
       </c>
       <c r="R231" s="2" t="inlineStr"/>
     </row>
-    <row r="232" ht="15" customHeight="1">
+    <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14048,13 +14053,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14087,63 +14087,6 @@
         <v>0</v>
       </c>
       <c r="R232" s="2" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>A 17892-2025</t>
-        </is>
-      </c>
-      <c r="B233" s="1" t="n">
-        <v>45758.68318287037</v>
-      </c>
-      <c r="C233" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>0</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0</v>
-      </c>
-      <c r="L233" t="n">
-        <v>0</v>
-      </c>
-      <c r="M233" t="n">
-        <v>0</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0</v>
-      </c>
-      <c r="P233" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>0</v>
-      </c>
-      <c r="R233" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z232"/>
+  <dimension ref="A1:Z233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 47321-2023</t>
+          <t>A 4831-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45202.50942129629</v>
+        <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -680,25 +680,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.3</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -707,134 +707,134 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Ask
+Barkticka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 4831-2025 artfynd.xlsx", "A 4831-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 4831-2025 karta.png", "A 4831-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 4831-2025 FSC-klagomål.docx", "A 4831-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 4831-2025 FSC-klagomål mail.docx", "A 4831-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 4831-2025 tillsynsbegäran.docx", "A 4831-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 4831-2025 tillsynsbegäran mail.docx", "A 4831-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 47321-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45202.50942129629</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Kråka
 Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 47321-2023 artfynd.xlsx", "A 47321-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 47321-2023 karta.png", "A 47321-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 47321-2023 FSC-klagomål.docx", "A 47321-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 47321-2023 FSC-klagomål mail.docx", "A 47321-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 47321-2023 tillsynsbegäran.docx", "A 47321-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 47321-2023 tillsynsbegäran mail.docx", "A 47321-2023")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 47321-2023 prioriterade fågelarter.docx", "A 47321-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 4831-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45688</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask
-Barkticka</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 4831-2025 artfynd.xlsx", "A 4831-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 4831-2025 karta.png", "A 4831-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 4831-2025 FSC-klagomål.docx", "A 4831-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 4831-2025 FSC-klagomål mail.docx", "A 4831-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 4831-2025 tillsynsbegäran.docx", "A 4831-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 4831-2025 tillsynsbegäran mail.docx", "A 4831-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44781</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,14 +928,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 7261-2025</t>
+          <t>A 15219-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45702.58821759259</v>
+        <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,19 +948,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -972,46 +972,42 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Knärot
-Västlig hakmossa</t>
+          <t>Tallticka
+Tårkragskivling</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 7261-2025 artfynd.xlsx", "A 7261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 15219-2024 artfynd.xlsx", "A 15219-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 7261-2025 karta.png", "A 7261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 15219-2024 karta.png", "A 15219-2024")</f>
         <v/>
       </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/knärot/A 7261-2025 karta knärot.png", "A 7261-2025")</f>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 15219-2024 FSC-klagomål.docx", "A 15219-2024")</f>
         <v/>
       </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 7261-2025 FSC-klagomål.docx", "A 7261-2025")</f>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 15219-2024 FSC-klagomål mail.docx", "A 15219-2024")</f>
         <v/>
       </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 7261-2025 FSC-klagomål mail.docx", "A 7261-2025")</f>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 15219-2024 tillsynsbegäran.docx", "A 15219-2024")</f>
         <v/>
       </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 7261-2025 tillsynsbegäran.docx", "A 7261-2025")</f>
-        <v/>
-      </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 7261-2025 tillsynsbegäran mail.docx", "A 7261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 15219-2024 tillsynsbegäran mail.docx", "A 15219-2024")</f>
         <v/>
       </c>
     </row>
@@ -1025,7 +1021,7 @@
         <v>45478.77283564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,14 +1104,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 15219-2024</t>
+          <t>A 7261-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45400</v>
+        <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,19 +1124,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1152,56 +1148,60 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Tallticka
-Tårkragskivling</t>
+          <t>Knärot
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 15219-2024 artfynd.xlsx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 7261-2025 artfynd.xlsx", "A 7261-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 15219-2024 karta.png", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 7261-2025 karta.png", "A 7261-2025")</f>
         <v/>
       </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/knärot/A 7261-2025 karta knärot.png", "A 7261-2025")</f>
+        <v/>
+      </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 15219-2024 FSC-klagomål.docx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 7261-2025 FSC-klagomål.docx", "A 7261-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 15219-2024 FSC-klagomål mail.docx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 7261-2025 FSC-klagomål mail.docx", "A 7261-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 15219-2024 tillsynsbegäran.docx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 7261-2025 tillsynsbegäran.docx", "A 7261-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 15219-2024 tillsynsbegäran mail.docx", "A 15219-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 7261-2025 tillsynsbegäran mail.docx", "A 7261-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 10476-2023</t>
+          <t>A 61818-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44987</v>
+        <v>45649.61065972222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1248,127 +1248,127 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Rödvingetrast</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 10476-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 61818-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45649.61065972222</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Rödvingetrast</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,14 +2113,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 9528-2022</t>
+          <t>A 7559-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44617</v>
+        <v>44239</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2132,8 +2132,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>20.3</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2170,14 +2175,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58120-2021</t>
+          <t>A 9528-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44487.55363425926</v>
+        <v>44617</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2190,7 +2195,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>20.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2227,14 +2232,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47048-2021</t>
+          <t>A 45001-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44446</v>
+        <v>44438.91945601852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2247,7 +2252,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2284,14 +2289,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 57990-2021</t>
+          <t>A 58120-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44487.40418981481</v>
+        <v>44487.55363425926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2304,7 +2309,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2341,14 +2346,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7559-2021</t>
+          <t>A 27329-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44239</v>
+        <v>44742.36770833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2360,13 +2365,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2403,14 +2403,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31159-2022</t>
+          <t>A 37155-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44770</v>
+        <v>44806.59059027778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2460,14 +2460,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24952-2021</t>
+          <t>A 8790-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44341</v>
+        <v>44614</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2479,8 +2479,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2517,14 +2522,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 24913-2021</t>
+          <t>A 33654-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44341</v>
+        <v>44789</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2542,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2574,14 +2579,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37155-2022</t>
+          <t>A 31159-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44806.59059027778</v>
+        <v>44770</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2599,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2631,14 +2636,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27329-2022</t>
+          <t>A 65341-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44742.36770833333</v>
+        <v>44515.64600694444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2656,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2688,14 +2693,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 65341-2021</t>
+          <t>A 47048-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44515.64600694444</v>
+        <v>44446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2713,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2745,14 +2750,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33654-2022</t>
+          <t>A 57990-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44789</v>
+        <v>44487.40418981481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2770,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2802,14 +2807,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 45001-2021</t>
+          <t>A 24952-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44438.91945601852</v>
+        <v>44341</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2822,7 +2827,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2859,14 +2864,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8790-2022</t>
+          <t>A 28331-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44614</v>
+        <v>44747.41405092592</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2878,13 +2883,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>44293</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2978,14 +2978,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28331-2022</t>
+          <t>A 24913-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44747.41405092592</v>
+        <v>44341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>44446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3092,14 +3092,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53764-2024</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45615</v>
+        <v>45387</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3111,8 +3111,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3149,14 +3154,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44967</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3169,7 +3174,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>18</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3206,14 +3211,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3226,7 +3231,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3263,14 +3268,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44858</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3283,7 +3288,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3320,14 +3325,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>45233</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3340,7 +3345,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3377,14 +3382,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3397,7 +3402,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.1</v>
+        <v>17</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3434,14 +3439,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40592-2025</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45896.54557870371</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3453,8 +3458,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3491,14 +3501,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44974</v>
+        <v>45478</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3511,7 +3521,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3548,14 +3558,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45229</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3568,7 +3578,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3605,14 +3615,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60465-2024</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45643.61819444445</v>
+        <v>45155</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3625,7 +3635,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3662,14 +3672,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 58393-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44967</v>
+        <v>44901</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3682,7 +3692,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3719,14 +3729,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>44859</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3739,7 +3749,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3776,14 +3786,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 11949-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>44994</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3796,7 +3806,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3833,14 +3843,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45260</v>
+        <v>45343</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3853,7 +3863,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3890,14 +3900,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>45127</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3920,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3947,14 +3957,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44964</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3967,7 +3977,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4004,14 +4014,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8053-2021</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44243</v>
+        <v>45252</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4024,7 +4034,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4061,14 +4071,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4080,8 +4090,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4118,14 +4133,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 41039-2025</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45898.39010416667</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4137,13 +4152,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4180,14 +4190,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>45355</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4200,7 +4210,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4237,14 +4247,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4294,14 +4304,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41937-2025</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45903.4413425926</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4314,7 +4324,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4351,14 +4361,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>44967</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4371,7 +4381,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4408,14 +4418,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45111.474375</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4428,7 +4438,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4465,14 +4475,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4485,7 +4495,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4522,14 +4532,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45635</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4542,7 +4552,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4579,14 +4589,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4599,7 +4609,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4636,14 +4646,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>44902</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4656,7 +4666,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4693,14 +4703,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4713,7 +4723,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4750,14 +4760,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4770,7 +4780,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4807,14 +4817,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4827,7 +4837,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4864,14 +4874,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4884,7 +4894,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4921,14 +4931,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4941,7 +4951,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4978,14 +4988,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4998,7 +5008,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5035,14 +5045,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45615</v>
+        <v>44974</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5055,7 +5065,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5092,14 +5102,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45359</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5112,7 +5122,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5149,14 +5159,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5169,7 +5179,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5206,14 +5216,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>44925</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5226,7 +5236,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5263,14 +5273,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5283,7 +5293,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5320,14 +5330,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 35112-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>45529.81975694445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5340,7 +5350,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5377,14 +5387,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5397,7 +5407,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5434,14 +5444,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>45250</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5454,7 +5464,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5491,14 +5501,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,8 +5520,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5548,14 +5563,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 17892-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45758.68318287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5568,7 +5583,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5605,14 +5620,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45623</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5625,7 +5640,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5662,14 +5677,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24234-2025</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45797.3800462963</v>
+        <v>45615</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5682,7 +5697,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5719,14 +5734,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 246-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>45660.4183449074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5739,7 +5754,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5776,14 +5791,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45229</v>
+        <v>44256</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5796,7 +5811,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5833,14 +5848,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>45623</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5853,7 +5868,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5890,14 +5905,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 8789-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>44246</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5910,7 +5925,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5947,14 +5962,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5967,7 +5982,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6004,14 +6019,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45727</v>
+        <v>45623</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,13 +6038,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6066,14 +6076,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45771</v>
+        <v>45622</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6086,7 +6096,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6123,14 +6133,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6143,7 +6153,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6180,14 +6190,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44357</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6200,7 +6210,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>27.5</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6237,14 +6247,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44859</v>
+        <v>45278</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6257,7 +6267,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6294,14 +6304,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45278</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6314,7 +6324,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6351,14 +6361,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45229</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6371,7 +6381,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6408,14 +6418,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44925</v>
+        <v>45111.474375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6428,7 +6438,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6465,14 +6475,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 60465-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>45643.61819444445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6485,7 +6495,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6522,14 +6532,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6542,7 +6552,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6579,14 +6589,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6599,7 +6609,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6636,14 +6646,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45250</v>
+        <v>45145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6656,7 +6666,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.5</v>
+        <v>11.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6693,14 +6703,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 53362-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>45614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6713,7 +6723,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>17.4</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6750,14 +6760,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6769,8 +6779,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6807,14 +6822,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6826,13 +6841,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6869,14 +6879,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46097-2025</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45924.54122685185</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6889,7 +6899,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6926,14 +6936,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 17892-2025</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45758.68318287037</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6946,7 +6956,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6983,14 +6993,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45252</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7003,7 +7013,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7040,14 +7050,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 60290-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>45642.97949074074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7060,7 +7070,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7097,14 +7107,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 19759-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45404</v>
+        <v>45432.69586805555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7154,14 +7164,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7174,7 +7184,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7211,14 +7221,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7231,7 +7241,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7268,14 +7278,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7288,7 +7298,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7325,14 +7335,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7345,7 +7355,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7382,14 +7392,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 8053-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>44243</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7402,7 +7412,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7439,14 +7449,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7459,7 +7469,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7496,14 +7506,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>45229</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7516,7 +7526,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7553,14 +7563,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7573,7 +7583,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7610,14 +7620,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>44964</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7630,7 +7640,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.2</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7667,14 +7677,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7687,7 +7697,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7724,14 +7734,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7744,7 +7754,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7781,14 +7791,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>44357</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7801,7 +7811,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>27.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7838,14 +7848,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44924</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7858,7 +7868,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>17.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7895,14 +7905,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44642</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7915,7 +7925,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7952,14 +7962,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7972,7 +7982,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8009,14 +8019,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8029,7 +8039,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8066,14 +8076,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 2872-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>44945.44319444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8086,7 +8096,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8123,14 +8133,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45155</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8143,7 +8153,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.8</v>
+        <v>7.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8180,14 +8190,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45252</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8200,7 +8210,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8237,14 +8247,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8257,7 +8267,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8294,14 +8304,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8314,7 +8324,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8351,14 +8361,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8371,7 +8381,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8408,14 +8418,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8428,7 +8438,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8465,14 +8475,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>45252</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8485,7 +8495,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8522,14 +8532,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 36835-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>45538.52260416667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8541,8 +8551,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8579,14 +8594,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8599,7 +8614,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8636,14 +8651,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44767</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8656,7 +8671,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8693,14 +8708,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>45260</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8713,7 +8728,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8750,14 +8765,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 240-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>45660.40756944445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8770,7 +8785,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8807,14 +8822,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 62527-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>44503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8827,7 +8842,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>22.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8864,14 +8879,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>44333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8884,7 +8899,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8921,14 +8936,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50343-2025</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45944.53710648148</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8941,7 +8956,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8978,14 +8993,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8998,7 +9013,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9035,14 +9050,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9055,7 +9070,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9092,14 +9107,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9112,7 +9127,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9149,14 +9164,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9169,7 +9184,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9206,14 +9221,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44967</v>
+        <v>45702</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9226,7 +9241,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9263,14 +9278,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44741</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9283,7 +9298,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9320,14 +9335,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9340,7 +9355,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9377,14 +9392,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 246-2025</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45660.4183449074</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9397,7 +9412,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9434,14 +9449,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9454,7 +9469,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9491,14 +9506,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>45254</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9511,7 +9526,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9548,14 +9563,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 7760-2025</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45706.54024305556</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9568,7 +9583,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9605,14 +9620,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 2086-2025</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45672.59024305556</v>
+        <v>44967</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9625,7 +9640,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9662,14 +9677,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>44741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9682,7 +9697,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9719,14 +9734,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62527-2021</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44503</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9739,7 +9754,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>22.6</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9776,14 +9791,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45958.718125</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9796,7 +9811,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9833,14 +9848,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53362-2024</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45614</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9853,7 +9868,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9890,14 +9905,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60290-2024</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45642.97949074074</v>
+        <v>44964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9910,7 +9925,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9947,14 +9962,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>44858</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9967,7 +9982,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10004,14 +10019,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 54191-2025</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45964.57228009259</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10024,7 +10039,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10061,14 +10076,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35112-2024</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45529.81975694445</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10081,7 +10096,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10118,14 +10133,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 19759-2024</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45432.69586805555</v>
+        <v>45635</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10138,7 +10153,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10175,14 +10190,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 54826-2025</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45966.66918981481</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10195,7 +10210,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10232,14 +10247,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 2086-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45623</v>
+        <v>45672.59024305556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10252,7 +10267,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10289,14 +10304,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10309,7 +10324,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10346,14 +10361,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10366,7 +10381,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10403,14 +10418,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10423,7 +10438,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10460,14 +10475,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>44967</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10480,7 +10495,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10517,14 +10532,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 36835-2024</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45538.52260416667</v>
+        <v>44767</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10536,13 +10551,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10579,14 +10589,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58393-2022</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44901</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10599,7 +10609,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10636,14 +10646,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2872-2023</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44945.44319444444</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10656,7 +10666,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10693,14 +10703,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 11949-2023</t>
+          <t>A 40592-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44994</v>
+        <v>45896.54557870371</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10713,7 +10723,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10750,14 +10760,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45233</v>
+        <v>45623</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10770,7 +10780,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10807,14 +10817,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 41039-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>45898.39010416667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10826,8 +10836,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10864,14 +10879,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 53764-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>45615</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10883,13 +10898,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10926,14 +10936,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46001</v>
+        <v>45174</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10945,13 +10955,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10988,14 +10993,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45623</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11008,7 +11013,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11045,14 +11050,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 41937-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>45903.4413425926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11065,7 +11070,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11102,14 +11107,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11122,7 +11127,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11159,14 +11164,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11179,7 +11184,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11216,14 +11221,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>45404</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11236,7 +11241,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11273,14 +11278,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11292,13 +11297,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11335,14 +11335,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>45226</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11392,14 +11392,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 7760-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45226</v>
+        <v>45706.54024305556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11449,14 +11449,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45229</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11506,14 +11506,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>45623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,13 +11525,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11568,14 +11563,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44333</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11588,7 +11583,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11625,14 +11620,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 46097-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>45924.54122685185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11645,7 +11640,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11682,14 +11677,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 5514-2026</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46050.64065972222</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11701,13 +11696,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11744,14 +11734,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 240-2025</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45660.40756944445</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11764,7 +11754,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11801,14 +11791,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>44642</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11821,7 +11811,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11858,14 +11848,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45702</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11878,7 +11868,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11915,14 +11905,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45120</v>
+        <v>44924</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11935,7 +11925,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11972,14 +11962,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44964</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11992,7 +11982,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12029,14 +12019,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45145</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12049,7 +12039,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>11.1</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12086,14 +12076,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12106,7 +12096,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12143,14 +12133,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12163,7 +12153,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12200,14 +12190,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12220,7 +12210,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12257,14 +12247,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12277,7 +12267,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12314,14 +12304,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12334,7 +12324,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12371,14 +12361,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12391,7 +12381,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12428,14 +12418,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7592-2026</t>
+          <t>A 50343-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46061.87305555555</v>
+        <v>45944.53710648148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12448,7 +12438,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12485,14 +12475,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45623</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12505,7 +12495,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12542,14 +12532,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45355</v>
+        <v>45615</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12562,7 +12552,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12599,14 +12589,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12619,7 +12609,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12656,14 +12646,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12675,13 +12665,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12718,14 +12703,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12738,7 +12723,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12775,14 +12760,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12795,7 +12780,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12832,14 +12817,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12852,7 +12837,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12889,14 +12874,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45615</v>
+        <v>45727</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12908,8 +12893,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12946,14 +12936,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>45229</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12966,7 +12956,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13003,14 +12993,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45359</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13023,7 +13013,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13060,14 +13050,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13080,7 +13070,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>17</v>
+        <v>1.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13117,14 +13107,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44902</v>
+        <v>45958.718125</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13137,7 +13127,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13174,14 +13164,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45622</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13194,7 +13184,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13231,14 +13221,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13251,7 +13241,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13288,14 +13278,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44256</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13308,7 +13298,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13345,14 +13335,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45174</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13365,7 +13355,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13402,14 +13392,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 24234-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45387</v>
+        <v>45797.3800462963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13421,13 +13411,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13464,14 +13449,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13484,7 +13469,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13521,14 +13506,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13541,7 +13526,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13578,14 +13563,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>45771</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13598,7 +13583,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13635,14 +13620,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 54191-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45478</v>
+        <v>45964.57228009259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13655,7 +13640,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13692,14 +13677,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 54826-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>45966.66918981481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13712,7 +13697,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13749,14 +13734,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45254</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13769,7 +13754,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13806,14 +13791,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>46001</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13825,8 +13810,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13863,14 +13853,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 8789-2021</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44246</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13883,7 +13873,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13920,14 +13910,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45343</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13939,8 +13929,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13977,14 +13972,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 5514-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>46050.64065972222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13996,8 +13991,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14031,17 +14031,17 @@
       </c>
       <c r="R231" s="2" t="inlineStr"/>
     </row>
-    <row r="232">
+    <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 7592-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45127</v>
+        <v>46061.87305555555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14087,6 +14087,63 @@
         <v>0</v>
       </c>
       <c r="R232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>A 8325-2026</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>46064.61490740741</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z233"/>
+  <dimension ref="A1:Z232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,14 +838,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 32280-2022</t>
+          <t>A 28849-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44781</v>
+        <v>45478.77283564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -892,36 +892,36 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv
-Sotriska</t>
+          <t>Entita
+Talltita</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
         <v/>
       </c>
       <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
         <v/>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 28849-2024</t>
+          <t>A 32280-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45478.77283564815</v>
+        <v>44781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>8.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1068,36 +1068,36 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Entita
-Talltita</t>
+          <t>Gulsparv
+Sotriska</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
         <v/>
       </c>
       <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
         <v/>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
         <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 61818-2024</t>
+          <t>A 10476-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45649.61065972222</v>
+        <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1248,127 +1248,127 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 61818-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45649.61065972222</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Rödvingetrast</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 10476-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,14 +2113,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7559-2021</t>
+          <t>A 9528-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44239</v>
+        <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2132,13 +2132,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>20.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2175,14 +2170,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 9528-2022</t>
+          <t>A 58120-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44617</v>
+        <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2190,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>20.3</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2232,14 +2227,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45001-2021</t>
+          <t>A 47048-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44438.91945601852</v>
+        <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2247,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2289,14 +2284,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 58120-2021</t>
+          <t>A 57990-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44487.55363425926</v>
+        <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2304,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2346,14 +2341,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 27329-2022</t>
+          <t>A 31159-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44742.36770833333</v>
+        <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2361,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2403,14 +2398,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37155-2022</t>
+          <t>A 24952-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44806.59059027778</v>
+        <v>44341</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2418,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2460,14 +2455,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 8790-2022</t>
+          <t>A 24913-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44614</v>
+        <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2479,13 +2474,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2522,14 +2512,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33654-2022</t>
+          <t>A 37155-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44789</v>
+        <v>44806.59059027778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2542,7 +2532,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2579,14 +2569,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 31159-2022</t>
+          <t>A 27329-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44770</v>
+        <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2599,7 +2589,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2636,14 +2626,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 65341-2021</t>
+          <t>A 33654-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44515.64600694444</v>
+        <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2693,14 +2683,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47048-2021</t>
+          <t>A 65341-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44446</v>
+        <v>44515.64600694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2713,7 +2703,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2750,14 +2740,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57990-2021</t>
+          <t>A 45001-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44487.40418981481</v>
+        <v>44438.91945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2770,7 +2760,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2807,14 +2797,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24952-2021</t>
+          <t>A 8790-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44341</v>
+        <v>44614</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2826,8 +2816,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2864,14 +2859,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28331-2022</t>
+          <t>A 16434-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44747.41405092592</v>
+        <v>44293</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2879,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2921,14 +2916,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 16434-2021</t>
+          <t>A 28331-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44293</v>
+        <v>44747.41405092592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2941,7 +2936,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2978,14 +2973,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 24913-2021</t>
+          <t>A 47057-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44341</v>
+        <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2998,7 +2993,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3035,14 +3030,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47057-2021</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44446</v>
+        <v>44967</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3055,7 +3050,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>18</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3092,14 +3087,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 60465-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45387</v>
+        <v>45643.61819444445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3111,13 +3106,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3154,14 +3144,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3174,7 +3164,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3211,14 +3201,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>45260</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3231,7 +3221,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3268,14 +3258,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3288,7 +3278,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3325,14 +3315,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45233</v>
+        <v>45111.474375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3345,7 +3335,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3382,14 +3372,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3402,7 +3392,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>17</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3439,14 +3429,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3458,13 +3448,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3501,14 +3486,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45478</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3521,7 +3506,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3558,14 +3543,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 24234-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45229</v>
+        <v>45797.3800462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3578,7 +3563,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3615,14 +3600,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45155</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3635,7 +3620,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3672,14 +3657,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58393-2022</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44901</v>
+        <v>45229</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3692,7 +3677,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3729,14 +3714,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44859</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3749,7 +3734,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3786,14 +3771,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11949-2023</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44994</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3806,7 +3791,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3843,14 +3828,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45343</v>
+        <v>44858</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3863,7 +3848,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3900,14 +3885,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45127</v>
+        <v>45727</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3919,8 +3904,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3957,14 +3947,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>45771</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3977,7 +3967,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4014,14 +4004,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45252</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4024,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4071,14 +4061,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4090,13 +4080,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4133,14 +4118,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4138,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4190,14 +4175,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45355</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4195,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4247,14 +4232,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 7592-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>46061.87305555555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4252,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4304,14 +4289,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4309,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4361,14 +4346,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44967</v>
+        <v>45623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4366,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4418,14 +4403,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>45250</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4423,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4475,14 +4460,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4480,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4532,14 +4517,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4537,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4589,14 +4574,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 8325-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>46064.61490740741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4594,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4646,14 +4631,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44902</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4665,8 +4650,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4703,14 +4693,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>44357</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4723,7 +4713,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>27.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4760,14 +4750,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 17892-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45758.68318287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4780,7 +4770,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4817,14 +4807,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>44859</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4837,7 +4827,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4874,14 +4864,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>45278</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4894,7 +4884,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4931,14 +4921,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45229</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4951,7 +4941,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4988,14 +4978,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45120</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5008,7 +4998,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5045,14 +5035,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44974</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5065,7 +5055,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5102,14 +5092,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45359</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5122,7 +5112,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5159,14 +5149,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5179,7 +5169,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5216,14 +5206,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44925</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5236,7 +5226,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5273,14 +5263,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5293,7 +5283,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>17.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5330,14 +5320,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35112-2024</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45529.81975694445</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5350,7 +5340,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5387,14 +5377,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5444,14 +5434,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5464,7 +5454,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5501,14 +5491,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5520,13 +5510,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5563,14 +5548,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 17892-2025</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45758.68318287037</v>
+        <v>45404</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5583,7 +5568,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5620,14 +5605,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5640,7 +5625,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>6.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5677,14 +5662,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45615</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5697,7 +5682,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5734,14 +5719,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 246-2025</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45660.4183449074</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5754,7 +5739,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5791,14 +5776,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44256</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5811,7 +5796,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5848,14 +5833,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 40592-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45623</v>
+        <v>45896.54557870371</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5868,7 +5853,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5905,14 +5890,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8789-2021</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44246</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5925,7 +5910,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5962,14 +5947,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5982,7 +5967,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6019,14 +6004,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45623</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6039,7 +6024,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6076,14 +6061,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45622</v>
+        <v>45252</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6096,7 +6081,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6133,14 +6118,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6153,7 +6138,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6190,14 +6175,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6210,7 +6195,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6247,14 +6232,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45278</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6267,7 +6252,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6304,14 +6289,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 41039-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>45898.39010416667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6323,8 +6308,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6361,14 +6351,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6381,7 +6371,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6418,14 +6408,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 41937-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45111.474375</v>
+        <v>45903.4413425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6438,7 +6428,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6475,14 +6465,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60465-2024</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45643.61819444445</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6495,7 +6485,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6532,14 +6522,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6552,7 +6542,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6589,14 +6579,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6609,7 +6599,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6646,14 +6636,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45145</v>
+        <v>45155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6666,7 +6656,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11.1</v>
+        <v>4.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6703,14 +6693,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 53362-2024</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45614</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6723,7 +6713,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6760,14 +6750,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6779,13 +6769,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6822,14 +6807,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6842,7 +6827,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6879,14 +6864,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6899,7 +6884,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6936,14 +6921,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6956,7 +6941,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6993,14 +6978,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7013,7 +6998,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7050,14 +7035,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60290-2024</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45642.97949074074</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7070,7 +7055,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7107,14 +7092,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19759-2024</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45432.69586805555</v>
+        <v>44967</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7127,7 +7112,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7164,14 +7149,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>44741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7184,7 +7169,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7221,14 +7206,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>44767</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7241,7 +7226,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7278,14 +7263,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7298,7 +7283,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7335,14 +7320,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7355,7 +7340,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7392,14 +7377,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8053-2021</t>
+          <t>A 46097-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44243</v>
+        <v>45924.54122685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7412,7 +7397,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7449,14 +7434,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7469,7 +7454,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7506,14 +7491,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45229</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7526,7 +7511,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7563,14 +7548,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 246-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>45660.4183449074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7583,7 +7568,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7620,14 +7605,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44964</v>
+        <v>44924</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7640,7 +7625,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7677,14 +7662,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>44642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7697,7 +7682,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7734,14 +7719,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7754,7 +7739,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7791,14 +7776,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 7760-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44357</v>
+        <v>45706.54024305556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7811,7 +7796,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>27.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7848,14 +7833,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 2086-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>45672.59024305556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7868,7 +7853,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>17.4</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7905,14 +7890,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 62527-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>44503</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7925,7 +7910,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>22.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7962,14 +7947,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7982,7 +7967,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8019,14 +8004,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8039,7 +8024,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8076,14 +8061,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 2872-2023</t>
+          <t>A 53362-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44945.44319444444</v>
+        <v>45614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8096,7 +8081,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8133,14 +8118,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8153,7 +8138,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8190,14 +8175,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 60290-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>45642.97949074074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8210,7 +8195,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8247,14 +8232,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8267,7 +8252,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8304,14 +8289,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8324,7 +8309,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8361,14 +8346,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 35112-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45529.81975694445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8381,7 +8366,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8418,14 +8403,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 50343-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45944.53710648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8438,7 +8423,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8475,14 +8460,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 19759-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45252</v>
+        <v>45432.69586805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8495,7 +8480,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8532,14 +8517,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 36835-2024</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45538.52260416667</v>
+        <v>45623</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,13 +8536,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8594,14 +8574,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8614,7 +8594,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8651,14 +8631,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8671,7 +8651,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8708,14 +8688,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45260</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8728,7 +8708,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8765,14 +8745,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 240-2025</t>
+          <t>A 36835-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45660.40756944445</v>
+        <v>45538.52260416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8782,6 +8762,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -8822,14 +8807,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62527-2021</t>
+          <t>A 58393-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44503</v>
+        <v>44901</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8842,7 +8827,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>22.6</v>
+        <v>2.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8879,14 +8864,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 2872-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44333</v>
+        <v>44945.44319444444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8899,7 +8884,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8936,14 +8921,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8956,7 +8941,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8993,14 +8978,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9013,7 +8998,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9050,14 +9035,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9070,7 +9055,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9107,14 +9092,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>45958.718125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9127,7 +9112,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9164,14 +9149,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 11949-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>44994</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9184,7 +9169,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9221,14 +9206,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45702</v>
+        <v>45233</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9241,7 +9226,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9278,14 +9263,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9335,14 +9320,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9355,7 +9340,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9392,14 +9377,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 54191-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45964.57228009259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9412,7 +9397,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9449,14 +9434,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9468,8 +9453,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9506,14 +9496,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 54826-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45254</v>
+        <v>45966.66918981481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9526,7 +9516,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9563,14 +9553,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>45623</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9583,7 +9573,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9620,14 +9610,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44967</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9640,7 +9630,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9677,14 +9667,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44741</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9697,7 +9687,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9734,14 +9724,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9754,7 +9744,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9791,14 +9781,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9811,7 +9801,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9848,14 +9838,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9867,8 +9857,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9905,14 +9900,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44964</v>
+        <v>45226</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9925,7 +9920,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9962,14 +9957,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44858</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9982,7 +9977,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10019,14 +10014,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>45229</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10039,7 +10034,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10076,14 +10071,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>44333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10096,7 +10091,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10133,14 +10128,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45635</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10153,7 +10148,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10190,14 +10185,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 240-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>45660.40756944445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10210,7 +10205,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10247,14 +10242,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 2086-2025</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45672.59024305556</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10267,7 +10262,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10304,14 +10299,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>46001</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,8 +10318,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10361,14 +10361,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>45702</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10418,14 +10418,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45120</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10475,14 +10475,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44967</v>
+        <v>44964</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>18</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10532,14 +10532,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44767</v>
+        <v>45145</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10589,14 +10589,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10646,14 +10646,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10703,14 +10703,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 40592-2025</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45896.54557870371</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10760,14 +10760,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45623</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10817,14 +10817,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 41039-2025</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45898.39010416667</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10836,13 +10836,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10879,14 +10874,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53764-2024</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45615</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10899,7 +10894,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10936,14 +10931,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45174</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10956,7 +10951,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10993,14 +10988,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>45623</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11013,7 +11008,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11050,14 +11045,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 41937-2025</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45903.4413425926</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,8 +11064,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11107,14 +11107,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>45355</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11164,14 +11164,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11221,14 +11221,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 5514-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45404</v>
+        <v>46050.64065972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,8 +11240,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11278,14 +11283,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,8 +11302,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11335,14 +11345,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45226</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11355,7 +11365,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11392,14 +11402,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 7760-2025</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45706.54024305556</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11412,7 +11422,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11449,14 +11459,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11469,7 +11479,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11506,14 +11516,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45623</v>
+        <v>45615</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11526,7 +11536,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11563,14 +11573,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11583,7 +11593,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11620,14 +11630,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46097-2025</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45924.54122685185</v>
+        <v>45359</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11640,7 +11650,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11677,14 +11687,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11697,7 +11707,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>17</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11734,14 +11744,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>44902</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11754,7 +11764,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11791,14 +11801,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44642</v>
+        <v>45622</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11811,7 +11821,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11848,14 +11858,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11868,7 +11878,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11905,14 +11915,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44924</v>
+        <v>44256</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11925,7 +11935,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11962,14 +11972,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>45174</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11982,7 +11992,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12019,14 +12029,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>45387</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,8 +12048,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12076,14 +12091,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12096,7 +12111,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12133,14 +12148,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12153,7 +12168,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12190,14 +12205,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12210,7 +12225,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12247,14 +12262,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>45478</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12267,7 +12282,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12304,14 +12319,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12324,7 +12339,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12361,14 +12376,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>45254</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12381,7 +12396,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12418,14 +12433,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50343-2025</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45944.53710648148</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12438,7 +12453,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12475,14 +12490,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 8789-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>44246</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12495,7 +12510,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12532,14 +12547,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45615</v>
+        <v>45343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12552,7 +12567,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12589,14 +12604,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12609,7 +12624,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12646,14 +12661,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45127</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12666,7 +12681,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12703,14 +12718,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 53764-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>45615</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12723,7 +12738,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12760,14 +12775,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12780,7 +12795,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12817,14 +12832,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12874,14 +12889,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45727</v>
+        <v>44967</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12893,13 +12908,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12936,14 +12946,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45229</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12956,7 +12966,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12993,14 +13003,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13013,7 +13023,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13050,14 +13060,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13070,7 +13080,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13107,14 +13117,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45958.718125</v>
+        <v>44964</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13127,7 +13137,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13164,14 +13174,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 8053-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>44243</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13184,7 +13194,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13221,14 +13231,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13241,7 +13251,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13278,14 +13288,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13298,7 +13308,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13335,14 +13345,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13355,7 +13365,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13392,14 +13402,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 24234-2025</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45797.3800462963</v>
+        <v>45635</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13412,7 +13422,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13449,14 +13459,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13469,7 +13479,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13506,14 +13516,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13526,7 +13536,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13563,14 +13573,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45771</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13583,7 +13593,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13620,14 +13630,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 54191-2025</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45964.57228009259</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13640,7 +13650,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13677,14 +13687,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 54826-2025</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45966.66918981481</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13697,7 +13707,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13734,14 +13744,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13754,7 +13764,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13791,14 +13801,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46001</v>
+        <v>45615</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13810,13 +13820,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13853,14 +13858,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13873,7 +13878,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13910,14 +13915,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13929,13 +13934,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13972,14 +13972,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 5514-2026</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46050.64065972222</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13991,13 +13991,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14031,17 +14026,17 @@
       </c>
       <c r="R231" s="2" t="inlineStr"/>
     </row>
-    <row r="232" ht="15" customHeight="1">
+    <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 7592-2026</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46061.87305555555</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14054,7 +14049,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14087,63 +14082,6 @@
         <v>0</v>
       </c>
       <c r="R232" s="2" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>A 8325-2026</t>
-        </is>
-      </c>
-      <c r="B233" s="1" t="n">
-        <v>46064.61490740741</v>
-      </c>
-      <c r="C233" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
-        <v>1</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>0</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0</v>
-      </c>
-      <c r="L233" t="n">
-        <v>0</v>
-      </c>
-      <c r="M233" t="n">
-        <v>0</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0</v>
-      </c>
-      <c r="P233" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>0</v>
-      </c>
-      <c r="R233" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45478.77283564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45649.61065972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44341</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44806.59059027778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44614</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44293</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3030,14 +3030,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>18</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>45643.61819444445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3144,14 +3144,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44974</v>
+        <v>44967</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3201,14 +3201,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45260</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3258,14 +3258,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3315,14 +3315,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45111.474375</v>
+        <v>45260</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3372,14 +3372,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3429,14 +3429,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3486,14 +3486,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45111.474375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3543,14 +3543,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24234-2025</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45797.3800462963</v>
+        <v>45615</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3600,14 +3600,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3657,14 +3657,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45229</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3714,14 +3714,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>44858</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3771,14 +3771,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3828,14 +3828,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44858</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3885,14 +3885,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45727</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,13 +3904,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3947,14 +3942,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45771</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3967,7 +3962,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4004,14 +3999,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4024,7 +4019,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4061,14 +4056,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4081,7 +4076,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4118,14 +4113,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 24234-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>45797.3800462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4138,7 +4133,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4175,14 +4170,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4195,7 +4190,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4232,14 +4227,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7592-2026</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46061.87305555555</v>
+        <v>45229</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4252,7 +4247,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4289,14 +4284,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44925</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4309,7 +4304,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4346,14 +4341,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45623</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4366,7 +4361,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4403,14 +4398,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45250</v>
+        <v>45727</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,8 +4417,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4460,14 +4460,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>45771</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4517,14 +4517,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4574,14 +4574,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8325-2026</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46064.61490740741</v>
+        <v>44925</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4650,13 +4650,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4693,14 +4688,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 40592-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44357</v>
+        <v>45896.54557870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4713,7 +4708,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>27.5</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4750,14 +4745,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17892-2025</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45758.68318287037</v>
+        <v>45250</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4770,7 +4765,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4807,14 +4802,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 41039-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44859</v>
+        <v>45898.39010416667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,8 +4821,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4864,14 +4864,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45278</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,8 +4883,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4921,14 +4926,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 41937-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45229</v>
+        <v>45903.4413425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4941,7 +4946,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4978,14 +4983,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 17892-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>45758.68318287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4998,7 +5003,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5035,14 +5040,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45623</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5055,7 +5060,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5092,14 +5097,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5112,7 +5117,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5149,14 +5154,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5169,7 +5174,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5206,14 +5211,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,8 +5230,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5263,14 +5273,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5283,7 +5293,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>17.4</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5320,14 +5330,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5340,7 +5350,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5377,14 +5387,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>44357</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5397,7 +5407,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>27.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5434,14 +5444,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45252</v>
+        <v>44859</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5454,7 +5464,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5491,14 +5501,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,14 +5558,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45404</v>
+        <v>45278</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5568,7 +5578,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5605,14 +5615,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5625,7 +5635,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5662,14 +5672,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>45229</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5682,7 +5692,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5719,14 +5729,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5739,7 +5749,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5776,14 +5786,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5796,7 +5806,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5833,14 +5843,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40592-2025</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45896.54557870371</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5890,14 +5900,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5910,7 +5920,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5947,14 +5957,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 5514-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>46050.64065972222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,8 +5976,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6004,14 +6019,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6024,7 +6039,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6061,14 +6076,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45252</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6081,7 +6096,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.9</v>
+        <v>17.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6118,14 +6133,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6138,7 +6153,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>6.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6175,14 +6190,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6195,7 +6210,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6232,14 +6247,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6252,7 +6267,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6289,14 +6304,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41039-2025</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45898.39010416667</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6308,13 +6323,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6351,14 +6361,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45252</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6371,7 +6381,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6408,14 +6418,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41937-2025</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45903.4413425926</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6428,7 +6438,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6465,14 +6475,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6485,7 +6495,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6522,14 +6532,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 46097-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>45924.54122685185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6542,7 +6552,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6579,14 +6589,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>45404</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6599,7 +6609,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6636,14 +6646,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45155</v>
+        <v>45252</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6656,7 +6666,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6693,14 +6703,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6750,14 +6760,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6770,7 +6780,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6807,14 +6817,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6864,14 +6874,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6884,7 +6894,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6921,14 +6931,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6941,7 +6951,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6978,14 +6988,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6998,7 +7008,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7035,14 +7045,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7055,7 +7065,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7092,14 +7102,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44967</v>
+        <v>44924</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7112,7 +7122,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7149,14 +7159,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44741</v>
+        <v>44642</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7169,7 +7179,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7206,14 +7216,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44767</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7226,7 +7236,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7263,14 +7273,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7283,7 +7293,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7320,14 +7330,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7340,7 +7350,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7377,14 +7387,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46097-2025</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45924.54122685185</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7397,7 +7407,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7434,14 +7444,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7454,7 +7464,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7491,14 +7501,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7511,7 +7521,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7548,14 +7558,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 246-2025</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45660.4183449074</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7568,7 +7578,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7605,14 +7615,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44924</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7625,7 +7635,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7662,14 +7672,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44642</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7682,7 +7692,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7719,14 +7729,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7739,7 +7749,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7776,14 +7786,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7760-2025</t>
+          <t>A 50343-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45706.54024305556</v>
+        <v>45944.53710648148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7796,7 +7806,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>8.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7833,14 +7843,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2086-2025</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45672.59024305556</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7853,7 +7863,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7890,14 +7900,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62527-2021</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44503</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7910,7 +7920,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>22.6</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7947,14 +7957,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7967,7 +7977,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8004,14 +8014,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8024,7 +8034,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8061,14 +8071,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53362-2024</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45614</v>
+        <v>44967</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8081,7 +8091,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8118,14 +8128,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>44741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8138,7 +8148,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8175,14 +8185,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60290-2024</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45642.97949074074</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8195,7 +8205,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8232,14 +8242,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8252,7 +8262,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8289,14 +8299,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8309,7 +8319,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8346,14 +8356,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35112-2024</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45529.81975694445</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8366,7 +8376,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8403,14 +8413,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50343-2025</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45944.53710648148</v>
+        <v>45958.718125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8423,7 +8433,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8460,14 +8470,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 19759-2024</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45432.69586805555</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8480,7 +8490,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8517,14 +8527,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 54191-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45623</v>
+        <v>45964.57228009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8537,7 +8547,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8574,14 +8584,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 54826-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45966.66918981481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8594,7 +8604,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8631,14 +8641,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 7592-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>46061.87305555555</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8651,7 +8661,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8688,14 +8698,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>44767</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8708,7 +8718,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8745,14 +8755,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 36835-2024</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45538.52260416667</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8764,13 +8774,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8807,14 +8812,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58393-2022</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44901</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8827,7 +8832,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8864,14 +8869,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2872-2023</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44945.44319444444</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8884,7 +8889,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8921,14 +8926,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 8325-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>46064</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8978,14 +8983,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 8936-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>46069.35884259259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8998,7 +9003,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9035,14 +9040,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9055,7 +9060,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9092,14 +9097,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 246-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45958.718125</v>
+        <v>45660.4183449074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9112,7 +9117,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9149,14 +9154,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 11949-2023</t>
+          <t>A 7760-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44994</v>
+        <v>45706.54024305556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9169,7 +9174,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9206,14 +9211,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 2086-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45233</v>
+        <v>45672.59024305556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9226,7 +9231,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9263,14 +9268,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 62527-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>44503</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9283,7 +9288,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>22.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9320,14 +9325,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>46001</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9339,8 +9344,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9377,14 +9387,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 54191-2025</t>
+          <t>A 53362-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45964.57228009259</v>
+        <v>45614</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9397,7 +9407,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9434,14 +9444,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 60290-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>45642.97949074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9453,13 +9463,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9496,14 +9501,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54826-2025</t>
+          <t>A 35112-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45966.66918981481</v>
+        <v>45529.81975694445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9516,7 +9521,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9553,14 +9558,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 19759-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45623</v>
+        <v>45432.69586805555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9573,7 +9578,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9610,14 +9615,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>45623</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9630,7 +9635,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9667,14 +9672,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9687,7 +9692,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9724,14 +9729,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9744,7 +9749,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9781,14 +9786,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9801,7 +9806,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9838,14 +9843,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9857,13 +9862,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9900,14 +9900,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 36835-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45226</v>
+        <v>45538.52260416667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,8 +9919,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9957,14 +9962,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 58393-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>44901</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9977,7 +9982,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10014,14 +10019,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 2872-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45229</v>
+        <v>44945.44319444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10034,7 +10039,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10071,14 +10076,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 11949-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44333</v>
+        <v>44994</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10091,7 +10096,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10128,14 +10133,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>45233</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10148,7 +10153,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10185,14 +10190,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 240-2025</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45660.40756944445</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10205,7 +10210,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10242,14 +10247,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,8 +10266,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10299,14 +10309,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46001</v>
+        <v>45623</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10318,13 +10328,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10361,14 +10366,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45702</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10381,7 +10386,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10418,14 +10423,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45120</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10438,7 +10443,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10475,14 +10480,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44964</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10495,7 +10500,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10532,14 +10537,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45145</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10552,7 +10557,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>11.1</v>
+        <v>2.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10589,14 +10594,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10608,8 +10613,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10646,14 +10656,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>45226</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10666,7 +10676,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10703,14 +10713,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>45229</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10723,7 +10733,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10760,14 +10770,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>44333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10780,7 +10790,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10817,14 +10827,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10837,7 +10847,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10874,14 +10884,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 240-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>45660.40756944445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10894,7 +10904,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10931,14 +10941,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10951,7 +10961,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10988,14 +10998,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45623</v>
+        <v>45702</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11008,7 +11018,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11045,14 +11055,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>45120</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11064,13 +11074,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11107,14 +11112,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45355</v>
+        <v>44964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11127,7 +11132,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11164,14 +11169,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>45145</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11184,7 +11189,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>11.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11221,14 +11226,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 5514-2026</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46050.64065972222</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,13 +11245,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11283,14 +11283,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11302,13 +11302,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11345,14 +11340,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11365,7 +11360,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11402,14 +11397,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11422,7 +11417,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11459,14 +11454,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11479,7 +11474,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11516,14 +11511,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45615</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11536,7 +11531,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11573,14 +11568,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>45623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11593,7 +11588,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11630,14 +11625,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45359</v>
+        <v>45355</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11650,7 +11645,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11687,14 +11682,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11707,7 +11702,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11744,14 +11739,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44902</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11763,8 +11758,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11801,14 +11801,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45622</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11858,14 +11858,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11915,14 +11915,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44256</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11972,14 +11972,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45174</v>
+        <v>45615</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45387</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12048,13 +12048,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12091,14 +12086,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>45359</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12111,7 +12106,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12148,14 +12143,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12168,7 +12163,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.4</v>
+        <v>17</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12205,14 +12200,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>44902</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12225,7 +12220,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12262,14 +12257,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45478</v>
+        <v>45622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12282,7 +12277,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12319,14 +12314,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12339,7 +12334,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12376,14 +12371,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45254</v>
+        <v>44256</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12396,7 +12391,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12433,14 +12428,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>45174</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12453,7 +12448,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12490,14 +12485,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8789-2021</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44246</v>
+        <v>45387</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12509,8 +12504,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12547,14 +12547,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45343</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12604,14 +12604,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12661,14 +12661,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45127</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12718,14 +12718,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 53764-2024</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45615</v>
+        <v>45478</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12775,14 +12775,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12832,14 +12832,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45254</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12889,14 +12889,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44967</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12946,14 +12946,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 8789-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>44246</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13003,14 +13003,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>45343</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13060,14 +13060,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13117,14 +13117,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44964</v>
+        <v>45127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13174,14 +13174,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8053-2021</t>
+          <t>A 53764-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44243</v>
+        <v>45615</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13231,14 +13231,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13288,14 +13288,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13345,14 +13345,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>44967</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13402,14 +13402,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45635</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13459,14 +13459,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13516,14 +13516,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13573,14 +13573,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>44964</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13630,14 +13630,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13687,14 +13687,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13744,14 +13744,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13801,14 +13801,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45615</v>
+        <v>45635</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13858,14 +13858,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13915,14 +13915,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13972,14 +13972,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14029,14 +14029,14 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45478.77283564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45649.61065972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44341</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44806.59059027778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44614</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44293</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3030,14 +3030,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44974</v>
+        <v>44967</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3087,14 +3087,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60465-2024</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45643.61819444445</v>
+        <v>44974</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3144,14 +3144,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 60465-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44967</v>
+        <v>45643.61819444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>18</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3201,14 +3201,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3258,14 +3258,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>45260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3315,14 +3315,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45260</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3372,14 +3372,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>44858</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3429,14 +3429,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3486,14 +3486,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45111.474375</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3543,14 +3543,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45615</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3600,14 +3600,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3657,14 +3657,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3714,14 +3714,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44858</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3771,14 +3771,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>45615</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3828,14 +3828,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3885,14 +3885,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3942,14 +3942,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3999,14 +3999,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45111.474375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4056,14 +4056,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4113,14 +4113,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24234-2025</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45797.3800462963</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4170,14 +4170,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4227,14 +4227,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45229</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8.5</v>
+        <v>3.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4284,14 +4284,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 24234-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>45797.3800462963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4341,14 +4341,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4398,14 +4398,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45727</v>
+        <v>45229</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4417,13 +4417,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4460,14 +4455,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45771</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4480,7 +4475,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4517,14 +4512,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4537,7 +4532,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4574,14 +4569,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44925</v>
+        <v>45727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4593,8 +4588,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>45771</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>45896.54557870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4745,14 +4745,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45250</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4802,14 +4802,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41039-2025</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45898.39010416667</v>
+        <v>44925</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4821,13 +4821,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4864,14 +4859,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 41039-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45898.39010416667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4889,7 +4884,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4933,7 +4928,7 @@
         <v>45903.4413425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4983,14 +4978,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 17892-2025</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45758.68318287037</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5003,7 +4998,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5040,14 +5035,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45623</v>
+        <v>45250</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5060,7 +5055,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5097,14 +5092,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5117,7 +5112,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5154,14 +5149,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5174,7 +5169,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5211,14 +5206,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5230,13 +5225,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5273,14 +5263,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5292,8 +5282,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5330,14 +5325,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 17892-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>45758.68318287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5350,7 +5345,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5387,14 +5382,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44357</v>
+        <v>45623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5407,7 +5402,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>27.5</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5444,14 +5439,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44859</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5464,7 +5459,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5501,14 +5496,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5521,7 +5516,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5558,14 +5553,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45278</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5578,7 +5573,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5615,14 +5610,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>44357</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5635,7 +5630,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.2</v>
+        <v>27.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5672,14 +5667,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45229</v>
+        <v>44859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5692,7 +5687,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5729,14 +5724,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5749,7 +5744,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5786,14 +5781,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5806,7 +5801,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5843,14 +5838,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>45278</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5863,7 +5858,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5900,14 +5895,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>45229</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5920,7 +5915,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5957,14 +5952,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5514-2026</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46050.64065972222</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5976,13 +5971,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6019,14 +6009,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6039,7 +6029,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6076,14 +6066,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 46097-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>45924.54122685185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6096,7 +6086,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>17.4</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6133,14 +6123,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6153,7 +6143,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6190,14 +6180,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6210,7 +6200,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6247,14 +6237,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6267,7 +6257,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>17.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6304,14 +6294,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6324,7 +6314,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6361,14 +6351,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45252</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6381,7 +6371,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6418,14 +6408,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6438,7 +6428,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6475,14 +6465,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>44924</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6495,7 +6485,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6532,14 +6522,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46097-2025</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45924.54122685185</v>
+        <v>44642</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6552,7 +6542,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6589,14 +6579,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45404</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6609,7 +6599,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6646,14 +6636,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>45252</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6666,7 +6656,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6703,14 +6693,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6723,7 +6713,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6760,14 +6750,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45404</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6780,7 +6770,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6817,14 +6807,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6837,7 +6827,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6874,14 +6864,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6894,7 +6884,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6931,14 +6921,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6951,7 +6941,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6988,14 +6978,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7008,7 +6998,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7045,14 +7035,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>45252</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7065,7 +7055,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7102,14 +7092,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44924</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7122,7 +7112,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7159,14 +7149,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44642</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7179,7 +7169,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7216,14 +7206,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7236,7 +7226,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7273,14 +7263,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7293,7 +7283,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7330,14 +7320,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7350,7 +7340,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7387,14 +7377,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7407,7 +7397,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7444,14 +7434,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7464,7 +7454,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7501,14 +7491,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7521,7 +7511,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7558,14 +7548,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7578,7 +7568,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7615,14 +7605,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7635,7 +7625,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7672,14 +7662,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 50343-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>45944.53710648148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7692,7 +7682,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7729,14 +7719,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7749,7 +7739,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7786,14 +7776,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 50343-2025</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45944.53710648148</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7806,7 +7796,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7843,14 +7833,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45155</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7863,7 +7853,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7900,14 +7890,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7920,7 +7910,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7957,14 +7947,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45155</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7977,7 +7967,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8014,14 +8004,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8034,7 +8024,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8071,14 +8061,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44967</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8091,7 +8081,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8.5</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8128,14 +8118,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44741</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8148,7 +8138,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8185,14 +8175,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>45958.718125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8205,7 +8195,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8242,14 +8232,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8262,7 +8252,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8299,14 +8289,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8319,7 +8309,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8356,14 +8346,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8376,7 +8366,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8413,14 +8403,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45958.718125</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8433,7 +8423,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8470,14 +8460,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8490,7 +8480,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8534,7 +8524,7 @@
         <v>45964.57228009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8591,7 +8581,7 @@
         <v>45966.66918981481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8641,14 +8631,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 7592-2026</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46061.87305555555</v>
+        <v>44967</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8661,7 +8651,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8698,14 +8688,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44767</v>
+        <v>44741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8718,7 +8708,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8755,14 +8745,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>44767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8775,7 +8765,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8812,14 +8802,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8832,7 +8822,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8869,14 +8859,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>46001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,8 +8878,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8926,14 +8921,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8325-2026</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46064</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8946,7 +8941,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8983,14 +8978,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8936-2026</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46069.35884259259</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9003,7 +8998,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9040,14 +9035,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9060,7 +9055,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9104,7 +9099,7 @@
         <v>45660.4183449074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9161,7 +9156,7 @@
         <v>45706.54024305556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9218,7 +9213,7 @@
         <v>45672.59024305556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9275,7 +9270,7 @@
         <v>44503</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9325,14 +9320,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46001</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9346,11 +9341,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9394,7 +9389,7 @@
         <v>45614</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9451,7 +9446,7 @@
         <v>45642.97949074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9508,7 +9503,7 @@
         <v>45529.81975694445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9565,7 +9560,7 @@
         <v>45432.69586805555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9615,14 +9610,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 5514-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45623</v>
+        <v>46050.64065972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,8 +9629,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9672,14 +9672,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45623</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9729,14 +9729,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9786,14 +9786,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9843,14 +9843,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9907,7 +9907,7 @@
         <v>45538.52260416667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>44901</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44945.44319444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44994</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10133,14 +10133,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 7592-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45233</v>
+        <v>46061.87305555555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10190,14 +10190,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>45233</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10247,14 +10247,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10266,13 +10266,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10309,14 +10304,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45623</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10328,8 +10323,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10366,14 +10366,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>45623</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10423,14 +10423,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10480,14 +10480,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 8325-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>46064</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10537,14 +10537,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 8936-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>46069.35884259259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10594,14 +10594,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,13 +10613,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10656,14 +10651,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45226</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10676,7 +10671,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10713,14 +10708,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45229</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10733,7 +10728,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10770,14 +10765,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44333</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10789,8 +10784,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10827,14 +10827,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>45226</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10884,14 +10884,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 240-2025</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45660.40756944445</v>
+        <v>45229</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10941,14 +10941,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>44333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10998,14 +10998,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45702</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11055,14 +11055,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 240-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45120</v>
+        <v>45660.40756944445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11112,14 +11112,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44964</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11169,14 +11169,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45145</v>
+        <v>45702</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11226,14 +11226,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>45120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11283,14 +11283,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>44964</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11340,14 +11340,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>45145</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.2</v>
+        <v>11.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11397,14 +11397,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11454,14 +11454,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11511,14 +11511,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11568,14 +11568,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45623</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11625,14 +11625,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45355</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11682,14 +11682,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11739,14 +11739,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>45623</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11758,13 +11758,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11801,14 +11796,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>45355</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11821,7 +11816,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11858,14 +11853,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11878,7 +11873,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11915,14 +11910,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11934,8 +11929,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11972,14 +11972,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45615</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45359</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12143,14 +12143,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>45615</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12200,14 +12200,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44902</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45622</v>
+        <v>45359</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12314,14 +12314,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12371,14 +12371,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44256</v>
+        <v>44902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45174</v>
+        <v>45622</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45387</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12504,13 +12504,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12547,14 +12542,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>44256</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12567,7 +12562,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12604,14 +12599,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>45174</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12624,7 +12619,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12661,14 +12656,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>45387</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12680,8 +12675,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12718,14 +12718,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45478</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12775,14 +12775,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12832,14 +12832,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45254</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12889,14 +12889,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>45478</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12946,14 +12946,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8789-2021</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44246</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13003,14 +13003,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45343</v>
+        <v>45254</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13060,14 +13060,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13117,14 +13117,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 8789-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45127</v>
+        <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13174,14 +13174,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 53764-2024</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45615</v>
+        <v>45343</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13231,14 +13231,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13288,14 +13288,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13345,14 +13345,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 53764-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44967</v>
+        <v>45615</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13402,14 +13402,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13459,14 +13459,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13516,14 +13516,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>44967</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13573,14 +13573,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44964</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13630,14 +13630,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13687,14 +13687,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13744,14 +13744,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>44964</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13801,14 +13801,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45635</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13858,14 +13858,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13915,14 +13915,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13972,14 +13972,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>45635</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14029,14 +14029,14 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,14 +838,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 28849-2024</t>
+          <t>A 32280-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45478.77283564815</v>
+        <v>44781</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -892,316 +892,316 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Gulsparv
+Sotriska</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 7261-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45702.58821759259</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 7261-2025 artfynd.xlsx", "A 7261-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 7261-2025 karta.png", "A 7261-2025")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/knärot/A 7261-2025 karta knärot.png", "A 7261-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 7261-2025 FSC-klagomål.docx", "A 7261-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 7261-2025 FSC-klagomål mail.docx", "A 7261-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 7261-2025 tillsynsbegäran.docx", "A 7261-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 7261-2025 tillsynsbegäran mail.docx", "A 7261-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 15219-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Tårkragskivling</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 15219-2024 artfynd.xlsx", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 15219-2024 karta.png", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 15219-2024 FSC-klagomål.docx", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 15219-2024 FSC-klagomål mail.docx", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 15219-2024 tillsynsbegäran.docx", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 15219-2024 tillsynsbegäran mail.docx", "A 15219-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 28849-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45478.77283564815</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 15219-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45400</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Tårkragskivling</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 15219-2024 artfynd.xlsx", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 15219-2024 karta.png", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 15219-2024 FSC-klagomål.docx", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 15219-2024 FSC-klagomål mail.docx", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 15219-2024 tillsynsbegäran.docx", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 15219-2024 tillsynsbegäran mail.docx", "A 15219-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 32280-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44781</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Sotriska</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 7261-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45702.58821759259</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 7261-2025 artfynd.xlsx", "A 7261-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 7261-2025 karta.png", "A 7261-2025")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/knärot/A 7261-2025 karta knärot.png", "A 7261-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 7261-2025 FSC-klagomål.docx", "A 7261-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 7261-2025 FSC-klagomål mail.docx", "A 7261-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 7261-2025 tillsynsbegäran.docx", "A 7261-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 7261-2025 tillsynsbegäran mail.docx", "A 7261-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 10476-2023</t>
+          <t>A 61818-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44987</v>
+        <v>45649.61065972222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1248,127 +1248,127 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Rödvingetrast</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 10476-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 61818-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45649.61065972222</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Rödvingetrast</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44341</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,14 +2512,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37155-2022</t>
+          <t>A 27329-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44806.59059027778</v>
+        <v>44742.36770833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 27329-2022</t>
+          <t>A 37155-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44742.36770833333</v>
+        <v>44806.59059027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44614</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44293</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3030,14 +3030,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44967</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>18</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3087,14 +3087,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44974</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3144,14 +3144,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60465-2024</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45643.61819444445</v>
+        <v>45229</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3201,14 +3201,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3258,14 +3258,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45260</v>
+        <v>44859</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3315,14 +3315,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>45343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3372,14 +3372,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44858</v>
+        <v>44642</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3429,14 +3429,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3486,14 +3486,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3543,14 +3543,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>45252</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3600,14 +3600,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>44924</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3657,14 +3657,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3714,14 +3714,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3771,14 +3771,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45615</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3828,14 +3828,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3885,14 +3885,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3942,14 +3942,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>4.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3999,14 +3999,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45111.474375</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4056,14 +4056,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 40592-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>45896.54557870371</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4113,14 +4113,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4170,14 +4170,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4227,14 +4227,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 41039-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45898.39010416667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,8 +4246,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4284,14 +4289,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24234-2025</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45797.3800462963</v>
+        <v>45359</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4304,7 +4309,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4341,14 +4346,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>45615</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4361,7 +4366,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4398,14 +4403,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45229</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4418,7 +4423,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4455,14 +4460,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4475,7 +4480,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4512,14 +4517,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4532,7 +4537,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4569,14 +4574,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45727</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,13 +4593,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4631,14 +4631,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45771</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4688,14 +4688,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40592-2025</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45896.54557870371</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4745,14 +4745,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4802,14 +4802,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44925</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4859,14 +4859,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41039-2025</t>
+          <t>A 50343-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45898.39010416667</v>
+        <v>45944.53710648148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4876,11 +4876,6 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -4921,14 +4916,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 41937-2025</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45903.4413425926</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4941,7 +4936,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4978,14 +4973,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>45727</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,8 +4992,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5035,14 +5035,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45250</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5092,14 +5092,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>45229</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5149,14 +5149,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 41937-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>45903.4413425926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5206,14 +5206,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5263,14 +5263,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,13 +5282,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5325,14 +5320,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 17892-2025</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45758.68318287037</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5345,7 +5340,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>17</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5382,14 +5377,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45623</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5402,7 +5397,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5439,14 +5434,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5458,8 +5453,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5496,14 +5496,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5553,14 +5553,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5610,14 +5610,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44357</v>
+        <v>45478</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>27.5</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5667,14 +5667,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 24234-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44859</v>
+        <v>45797.3800462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5724,14 +5724,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>45155</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5781,14 +5781,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5838,14 +5838,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45278</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5895,14 +5895,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45229</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5952,14 +5952,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>45958.718125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6009,14 +6009,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6066,14 +6066,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46097-2025</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45924.54122685185</v>
+        <v>45771</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6123,14 +6123,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6180,14 +6180,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 54191-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>45964.57228009259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6237,14 +6237,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 54826-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>45966.66918981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>17.4</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6294,14 +6294,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>44925</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6351,14 +6351,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6408,14 +6408,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6427,8 +6427,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6465,14 +6470,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44924</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6485,7 +6490,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6522,14 +6527,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44642</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6542,7 +6547,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6579,14 +6584,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6599,7 +6604,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6636,14 +6641,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45252</v>
+        <v>45250</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6656,7 +6661,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6693,14 +6698,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>44902</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6713,7 +6718,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6750,14 +6755,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 46097-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45404</v>
+        <v>45924.54122685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6770,7 +6775,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6807,14 +6812,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6826,8 +6831,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6864,14 +6874,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 17892-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>45758.68318287037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6884,7 +6894,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6921,14 +6931,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6941,7 +6951,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6978,14 +6988,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6998,7 +7008,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7035,14 +7045,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45252</v>
+        <v>44974</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7055,7 +7065,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7092,14 +7102,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7112,7 +7122,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7149,14 +7159,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7169,7 +7179,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7206,14 +7216,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7226,7 +7236,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7263,14 +7273,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7283,7 +7293,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7320,14 +7330,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7340,7 +7350,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7377,14 +7387,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7397,7 +7407,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7434,14 +7444,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7454,7 +7464,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7491,14 +7501,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7511,7 +7521,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7548,14 +7558,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7568,7 +7578,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7605,14 +7615,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7625,7 +7635,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7662,14 +7672,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50343-2025</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45944.53710648148</v>
+        <v>45615</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7682,7 +7692,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7719,14 +7729,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>44256</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7739,7 +7749,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7776,14 +7786,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>45623</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7796,7 +7806,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7833,14 +7843,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45155</v>
+        <v>45623</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7853,7 +7863,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7890,14 +7900,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>45622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7910,7 +7920,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7947,14 +7957,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7967,7 +7977,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8004,14 +8014,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8024,7 +8034,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8061,14 +8071,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>45252</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8081,7 +8091,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8118,14 +8128,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8138,7 +8148,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8175,14 +8185,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45958.718125</v>
+        <v>45278</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8195,7 +8205,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8232,14 +8242,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8289,14 +8299,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8309,7 +8319,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8346,14 +8356,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 60290-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>45642.97949074074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8366,7 +8376,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8403,14 +8413,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8423,7 +8433,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8460,14 +8470,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8480,7 +8490,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8517,14 +8527,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54191-2025</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45964.57228009259</v>
+        <v>46001</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8536,8 +8546,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8574,14 +8589,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 54826-2025</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45966.66918981481</v>
+        <v>44357</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8594,7 +8609,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>27.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8631,14 +8646,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44967</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8651,7 +8666,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8688,14 +8703,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44741</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8708,7 +8723,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8745,14 +8760,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44767</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8765,7 +8780,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8802,14 +8817,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8822,7 +8837,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8859,14 +8874,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46001</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8878,13 +8893,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8921,14 +8931,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>44967</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8941,7 +8951,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8978,14 +8988,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>44741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8998,7 +9008,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9035,14 +9045,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 62527-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>44503</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9055,7 +9065,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>22.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9092,14 +9102,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 246-2025</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45660.4183449074</v>
+        <v>44333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9112,7 +9122,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9149,14 +9159,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 7760-2025</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45706.54024305556</v>
+        <v>44858</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9169,7 +9179,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>8.300000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9206,14 +9216,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 2086-2025</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45672.59024305556</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9226,7 +9236,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9263,14 +9273,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 62527-2021</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44503</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9283,7 +9293,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>22.6</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9320,14 +9330,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9339,13 +9349,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9382,14 +9387,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 53362-2024</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45614</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9401,8 +9406,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9439,14 +9449,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60290-2024</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45642.97949074074</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9459,7 +9469,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9496,14 +9506,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35112-2024</t>
+          <t>A 5514-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45529.81975694445</v>
+        <v>46050.64065972222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9515,8 +9525,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9553,14 +9568,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 19759-2024</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45432.69586805555</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9573,7 +9588,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9610,14 +9625,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 5514-2026</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46050.64065972222</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9629,13 +9644,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9672,14 +9682,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45623</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9692,7 +9702,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9729,14 +9739,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45387</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,8 +9758,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9786,14 +9801,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9806,7 +9821,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9843,14 +9858,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>45233</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9863,7 +9878,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9900,14 +9915,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 36835-2024</t>
+          <t>A 58393-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45538.52260416667</v>
+        <v>44901</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,13 +9934,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9962,14 +9972,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 58393-2022</t>
+          <t>A 7592-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44901</v>
+        <v>46061.87305555555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9982,7 +9992,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10019,14 +10029,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2872-2023</t>
+          <t>A 11949-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44945.44319444444</v>
+        <v>44994</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10039,7 +10049,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10076,14 +10086,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 11949-2023</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44994</v>
+        <v>45127</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10096,7 +10106,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10133,14 +10143,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 7592-2026</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46061.87305555555</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10153,7 +10163,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10190,14 +10200,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 8325-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45233</v>
+        <v>46064</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10210,7 +10220,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10247,14 +10257,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>45355</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10267,7 +10277,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10304,14 +10314,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>44967</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10321,11 +10331,6 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -10366,14 +10371,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45623</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10386,7 +10391,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10423,14 +10428,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10443,7 +10448,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10480,14 +10485,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8325-2026</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46064</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10500,7 +10505,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10537,14 +10542,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 8936-2026</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46069.35884259259</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10557,7 +10562,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10594,14 +10599,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10614,7 +10619,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10651,14 +10656,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 8936-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>46069.35884259259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10671,7 +10676,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10708,14 +10713,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10728,7 +10733,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10765,14 +10770,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 9738-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>46072.50523148148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,13 +10789,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10827,14 +10827,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45226</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10884,14 +10884,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 35112-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45229</v>
+        <v>45529.81975694445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10941,14 +10941,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44333</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10998,14 +10998,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 246-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>45660.4183449074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11055,14 +11055,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 240-2025</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45660.40756944445</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11112,14 +11112,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>45111.474375</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11169,14 +11169,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 60465-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45702</v>
+        <v>45643.61819444445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11226,14 +11226,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45120</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11283,14 +11283,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44964</v>
+        <v>45145</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>11.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11340,14 +11340,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 53362-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45145</v>
+        <v>45614</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>11.1</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11397,14 +11397,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11416,8 +11416,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11454,14 +11459,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11474,7 +11479,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11511,14 +11516,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 19759-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>45432.69586805555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11531,7 +11536,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11568,14 +11573,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11588,7 +11593,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11625,14 +11630,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11645,7 +11650,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11682,14 +11687,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11702,7 +11707,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.4</v>
+        <v>17.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11739,14 +11744,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45623</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11759,7 +11764,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11796,14 +11801,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45355</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11816,7 +11821,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11853,14 +11858,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11873,7 +11878,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11910,14 +11915,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>45260</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11929,13 +11934,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11972,14 +11972,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 240-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>45660.40756944445</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12029,14 +12029,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12086,14 +12086,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12143,14 +12143,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45615</v>
+        <v>45702</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12200,14 +12200,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45359</v>
+        <v>45254</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12314,14 +12314,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>44964</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>17</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12371,14 +12371,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44902</v>
+        <v>45635</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45622</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>44967</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12542,14 +12542,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44256</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12599,14 +12599,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45174</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12656,14 +12656,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45387</v>
+        <v>45229</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12675,13 +12675,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12718,14 +12713,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>44964</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12738,7 +12733,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12775,14 +12770,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12795,7 +12790,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12832,14 +12827,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12852,7 +12847,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12889,14 +12884,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45478</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12909,7 +12904,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12946,14 +12941,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 2872-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>44945.44319444444</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12966,7 +12961,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13003,14 +12998,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45254</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13023,7 +13018,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13060,14 +13055,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13080,7 +13075,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13117,14 +13112,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 8789-2021</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44246</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13137,7 +13132,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13174,14 +13169,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 36835-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45343</v>
+        <v>45538.52260416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13193,8 +13188,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13231,14 +13231,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13288,14 +13288,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45127</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13345,14 +13345,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 53764-2024</t>
+          <t>A 2086-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45615</v>
+        <v>45672.59024305556</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13402,14 +13402,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>44767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13459,14 +13459,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13516,14 +13516,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44967</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13573,14 +13573,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>45623</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13630,14 +13630,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 53764-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>45615</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13687,14 +13687,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>45174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13744,14 +13744,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44964</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13801,14 +13801,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45404</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13858,14 +13858,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13915,14 +13915,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>45226</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13972,14 +13972,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 7760-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45635</v>
+        <v>45706.54024305556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14029,14 +14029,14 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>45623</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z232"/>
+  <dimension ref="A1:Z233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,14 +838,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 32280-2022</t>
+          <t>A 28849-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44781</v>
+        <v>45478.77283564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -892,316 +892,316 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 15219-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Tårkragskivling</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 15219-2024 artfynd.xlsx", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 15219-2024 karta.png", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 15219-2024 FSC-klagomål.docx", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 15219-2024 FSC-klagomål mail.docx", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 15219-2024 tillsynsbegäran.docx", "A 15219-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 15219-2024 tillsynsbegäran mail.docx", "A 15219-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 32280-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv
 Sotriska</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 32280-2022 artfynd.xlsx", "A 32280-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 32280-2022 karta.png", "A 32280-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 32280-2022 FSC-klagomål.docx", "A 32280-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 32280-2022 FSC-klagomål mail.docx", "A 32280-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 32280-2022 tillsynsbegäran.docx", "A 32280-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 32280-2022 tillsynsbegäran mail.docx", "A 32280-2022")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 32280-2022 prioriterade fågelarter.docx", "A 32280-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 7261-2025</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45702.58821759259</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2.3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 7261-2025 artfynd.xlsx", "A 7261-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 7261-2025 karta.png", "A 7261-2025")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/knärot/A 7261-2025 karta knärot.png", "A 7261-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 7261-2025 FSC-klagomål.docx", "A 7261-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 7261-2025 FSC-klagomål mail.docx", "A 7261-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 7261-2025 tillsynsbegäran.docx", "A 7261-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 7261-2025 tillsynsbegäran mail.docx", "A 7261-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 15219-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45400</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Tårkragskivling</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 15219-2024 artfynd.xlsx", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 15219-2024 karta.png", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 15219-2024 FSC-klagomål.docx", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 15219-2024 FSC-klagomål mail.docx", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 15219-2024 tillsynsbegäran.docx", "A 15219-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 15219-2024 tillsynsbegäran mail.docx", "A 15219-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28849-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45478.77283564815</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 28849-2024 artfynd.xlsx", "A 28849-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 28849-2024 karta.png", "A 28849-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 28849-2024 FSC-klagomål.docx", "A 28849-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 28849-2024 FSC-klagomål mail.docx", "A 28849-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 28849-2024 tillsynsbegäran.docx", "A 28849-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 28849-2024 tillsynsbegäran mail.docx", "A 28849-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 28849-2024 prioriterade fågelarter.docx", "A 28849-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 61818-2024</t>
+          <t>A 10476-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45649.61065972222</v>
+        <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1248,127 +1248,127 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 61818-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45649.61065972222</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Rödvingetrast</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 61818-2024 artfynd.xlsx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 61818-2024 karta.png", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 61818-2024 FSC-klagomål.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 61818-2024 FSC-klagomål mail.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 61818-2024 tillsynsbegäran.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 61818-2024 tillsynsbegäran mail.docx", "A 61818-2024")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 61818-2024 prioriterade fågelarter.docx", "A 61818-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 10476-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/artfynd/A 10476-2023 artfynd.xlsx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/kartor/A 10476-2023 karta.png", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomål/A 10476-2023 FSC-klagomål.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/klagomålsmail/A 10476-2023 FSC-klagomål mail.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsyn/A 10476-2023 tillsynsbegäran.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/tillsynsmail/A 10476-2023 tillsynsbegäran mail.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1494/fåglar/A 10476-2023 prioriterade fågelarter.docx", "A 10476-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44341</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,14 +2512,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 27329-2022</t>
+          <t>A 37155-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44742.36770833333</v>
+        <v>44806.59059027778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37155-2022</t>
+          <t>A 27329-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44806.59059027778</v>
+        <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44614</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44293</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3030,14 +3030,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7248-2025</t>
+          <t>A 6898-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45702.55677083333</v>
+        <v>44967</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>18</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3087,14 +3087,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 44680-2023</t>
+          <t>A 8124-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45189.83261574074</v>
+        <v>44974</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3144,14 +3144,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 53273-2023</t>
+          <t>A 60465-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45229</v>
+        <v>45643.61819444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3201,14 +3201,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15374-2025</t>
+          <t>A 60642-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45747.40619212963</v>
+        <v>45260</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3258,14 +3258,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49755-2022</t>
+          <t>A 48301-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44859</v>
+        <v>45590.47016203704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3315,14 +3315,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6940-2024</t>
+          <t>A 7247-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45343</v>
+        <v>45702.55347222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3372,14 +3372,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12819-2022</t>
+          <t>A 30399-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44642</v>
+        <v>45111.474375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3429,14 +3429,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60274-2024</t>
+          <t>A 44680-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45642.89546296297</v>
+        <v>45189.83261574074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3486,14 +3486,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20614-2025</t>
+          <t>A 11795-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45776.25559027777</v>
+        <v>45375.3290625</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3543,14 +3543,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 59068-2023</t>
+          <t>A 55974-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45252</v>
+        <v>45623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3600,14 +3600,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 62569-2022</t>
+          <t>A 48346-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44924</v>
+        <v>45590.55582175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3657,14 +3657,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 136-2023</t>
+          <t>A 39800-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44928.51184027778</v>
+        <v>44819.51783564815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3714,14 +3714,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 53119-2024</t>
+          <t>A 49755-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45611.58608796296</v>
+        <v>44859</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3771,14 +3771,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38702-2025</t>
+          <t>A 28776-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45885.05005787037</v>
+        <v>44357</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3828,14 +3828,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 56373-2024</t>
+          <t>A 63778-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45625.3313425926</v>
+        <v>45278</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3885,14 +3885,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 18768-2024</t>
+          <t>A 53279-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45426.5609837963</v>
+        <v>45229</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3942,14 +3942,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61817-2024</t>
+          <t>A 48411-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45649.60460648148</v>
+        <v>44858</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3999,14 +3999,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22922-2025</t>
+          <t>A 136-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45790.44003472223</v>
+        <v>44928.51184027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4056,14 +4056,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40592-2025</t>
+          <t>A 38702-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45896.54557870371</v>
+        <v>45885.05005787037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4113,14 +4113,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 22877-2025</t>
+          <t>A 53119-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45790.37597222222</v>
+        <v>45611.58608796296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4170,14 +4170,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9973-2024</t>
+          <t>A 58620-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45363.68083333333</v>
+        <v>44902.59869212963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4227,14 +4227,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41039-2025</t>
+          <t>A 1455-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45898.39010416667</v>
+        <v>45670.31842592593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4244,11 +4244,6 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>LIDKÖPING</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -4289,14 +4284,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9422-2024</t>
+          <t>A 37169-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45359</v>
+        <v>44806.60627314815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4309,7 +4304,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>17.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4346,14 +4341,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53805-2024</t>
+          <t>A 29433-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45615</v>
+        <v>45824.65635416667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4366,7 +4361,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4403,14 +4398,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11387-2025</t>
+          <t>A 7223-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45726.56342592592</v>
+        <v>45702.48797453703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4423,7 +4418,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4460,14 +4455,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8768-2025</t>
+          <t>A 29495-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45712.5903587963</v>
+        <v>45824.84045138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4480,7 +4475,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4517,14 +4512,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11393-2025</t>
+          <t>A 59068-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45726.57238425926</v>
+        <v>45252</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4537,7 +4532,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.2</v>
+        <v>6.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4574,14 +4569,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9083-2025</t>
+          <t>A 7248-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45713.66717592593</v>
+        <v>45702.55677083333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4594,7 +4589,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4631,14 +4626,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49906-2025</t>
+          <t>A 15802-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45940.59814814815</v>
+        <v>45404</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4651,7 +4646,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4688,14 +4683,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49909-2025</t>
+          <t>A 29845-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45940.60710648148</v>
+        <v>45826.32145833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4708,7 +4703,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4745,14 +4740,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49996-2025</t>
+          <t>A 50577-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45943.08944444444</v>
+        <v>45601.60918981482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4765,7 +4760,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4802,14 +4797,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49997-2025</t>
+          <t>A 40592-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45943.09143518518</v>
+        <v>45896.54557870371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4822,7 +4817,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4859,14 +4854,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50343-2025</t>
+          <t>A 25762-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45944.53710648148</v>
+        <v>45090.4546412037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4879,7 +4874,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4916,14 +4911,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49998-2025</t>
+          <t>A 31844-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45943.09372685185</v>
+        <v>45834.60144675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4936,7 +4931,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>6.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4973,14 +4968,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11563-2025</t>
+          <t>A 31825-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45727</v>
+        <v>45834.58232638889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4992,13 +4987,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5035,14 +5025,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42188-2025</t>
+          <t>A 15374-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45904.46631944444</v>
+        <v>45747.40619212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5055,7 +5045,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5092,14 +5082,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53275-2023</t>
+          <t>A 41039-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45229</v>
+        <v>45898.39010416667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,8 +5101,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5149,14 +5144,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41937-2025</t>
+          <t>A 25096-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45903.4413425926</v>
+        <v>45086.36361111111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5169,7 +5164,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5206,14 +5201,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44104-2024</t>
+          <t>A 41937-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45572.62975694444</v>
+        <v>45903.4413425926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5226,7 +5221,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5263,14 +5258,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42644-2025</t>
+          <t>A 32952-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45906.38402777778</v>
+        <v>45125.49396990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5283,7 +5278,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5320,14 +5315,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45608-2022</t>
+          <t>A 32354-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44845.58590277778</v>
+        <v>45837.53755787037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5340,7 +5335,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5377,14 +5372,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 24356-2025</t>
+          <t>A 32355-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45797.59305555555</v>
+        <v>45837.55134259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5397,7 +5392,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5434,14 +5429,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31605-2024</t>
+          <t>A 42188-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45506.42094907408</v>
+        <v>45904.46631944444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,13 +5448,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5496,14 +5486,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24242-2025</t>
+          <t>A 42644-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45797.38863425926</v>
+        <v>45906.38402777778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5516,7 +5506,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5553,14 +5543,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24353-2025</t>
+          <t>A 59069-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45797.58983796297</v>
+        <v>45252</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5573,7 +5563,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5610,14 +5600,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28850-2024</t>
+          <t>A 64506-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45478</v>
+        <v>45280.97847222222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5630,7 +5620,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5667,14 +5657,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24234-2025</t>
+          <t>A 43445-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45797.3800462963</v>
+        <v>45184.35591435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5687,7 +5677,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5724,14 +5714,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37098-2023</t>
+          <t>A 26356-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45155</v>
+        <v>45805.8687037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5744,7 +5734,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5781,14 +5771,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53275-2025</t>
+          <t>A 34332-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45958.7215625</v>
+        <v>45846.44829861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5801,7 +5791,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5838,14 +5828,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24352-2025</t>
+          <t>A 44367-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45797.58431712963</v>
+        <v>45916.45898148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5858,7 +5848,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5895,14 +5885,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52640-2025</t>
+          <t>A 37098-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5915,7 +5905,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5952,14 +5942,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 53274-2025</t>
+          <t>A 61312-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45958.718125</v>
+        <v>45264.56998842592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5972,7 +5962,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6009,14 +5999,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52719-2025</t>
+          <t>A 46097-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45957.3331712963</v>
+        <v>45924.54122685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6029,7 +6019,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6066,14 +6056,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19840-2025</t>
+          <t>A 36201-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45771</v>
+        <v>45867.44418981481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6086,7 +6076,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6123,14 +6113,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 54190-2025</t>
+          <t>A 36208-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45964.57034722222</v>
+        <v>45867.46184027778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6143,7 +6133,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6180,14 +6170,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54191-2025</t>
+          <t>A 37195-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45964.57228009259</v>
+        <v>45875.66164351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6200,7 +6190,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6237,14 +6227,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54826-2025</t>
+          <t>A 37125-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45966.66918981481</v>
+        <v>45875.52809027778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6257,7 +6247,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6294,14 +6284,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 62629-2022</t>
+          <t>A 37299-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44925</v>
+        <v>45876.5759375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6314,7 +6304,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6351,14 +6341,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44367-2025</t>
+          <t>A 62569-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45916.45898148148</v>
+        <v>44924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6371,7 +6361,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6408,14 +6398,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36816-2024</t>
+          <t>A 12819-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45538.4906712963</v>
+        <v>44642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6427,13 +6417,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6470,14 +6455,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 36622-2023</t>
+          <t>A 60274-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45153.50684027778</v>
+        <v>45642.89546296297</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6490,7 +6475,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6527,14 +6512,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10524-2024</t>
+          <t>A 30904-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45366.53228009259</v>
+        <v>44767</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6547,7 +6532,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6584,14 +6569,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 8950-2024</t>
+          <t>A 6907-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45357.44467592592</v>
+        <v>44967</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6604,7 +6589,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6641,14 +6626,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58420-2023</t>
+          <t>A 27117-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45250</v>
+        <v>44741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6661,7 +6646,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6698,14 +6683,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58672-2022</t>
+          <t>A 12175-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44902</v>
+        <v>44998.54354166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6718,7 +6703,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6755,14 +6740,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46097-2025</t>
+          <t>A 49906-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45924.54122685185</v>
+        <v>45940.59814814815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6775,7 +6760,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6812,14 +6797,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36945-2024</t>
+          <t>A 49998-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45538.69571759259</v>
+        <v>45943.09372685185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,13 +6816,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6874,14 +6854,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 17892-2025</t>
+          <t>A 49909-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45758.68318287037</v>
+        <v>45940.60710648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6894,7 +6874,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6931,14 +6911,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43445-2023</t>
+          <t>A 49996-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45184.35591435185</v>
+        <v>45943.08944444444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6951,7 +6931,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6988,14 +6968,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32395-2023</t>
+          <t>A 49997-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45120</v>
+        <v>45943.09143518518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7045,14 +7025,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8124-2023</t>
+          <t>A 50343-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44974</v>
+        <v>45944.53710648148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7065,7 +7045,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7102,14 +7082,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29433-2025</t>
+          <t>A 8953-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45824.65635416667</v>
+        <v>44979.47184027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7122,7 +7102,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7159,14 +7139,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56841-2025</t>
+          <t>A 16976-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45978.48229166667</v>
+        <v>45755.47385416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7216,14 +7196,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 29845-2025</t>
+          <t>A 246-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45826.32145833333</v>
+        <v>45660.4183449074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7236,7 +7216,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7273,14 +7253,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40291-2024</t>
+          <t>A 52719-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45554.68796296296</v>
+        <v>45957.3331712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7293,7 +7273,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7330,14 +7310,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 29495-2025</t>
+          <t>A 52640-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45824.84045138889</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7350,7 +7330,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7387,14 +7367,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31844-2025</t>
+          <t>A 7760-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45834.60144675926</v>
+        <v>45706.54024305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7407,7 +7387,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7444,14 +7424,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31825-2025</t>
+          <t>A 53275-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45834.58232638889</v>
+        <v>45958.7215625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7464,7 +7444,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7501,14 +7481,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32355-2025</t>
+          <t>A 53274-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45837.55134259259</v>
+        <v>45958.718125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7521,7 +7501,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7558,14 +7538,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32354-2025</t>
+          <t>A 2086-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45837.53755787037</v>
+        <v>45672.59024305556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7578,7 +7558,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7615,14 +7595,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7247-2025</t>
+          <t>A 62527-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45702.55347222222</v>
+        <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7635,7 +7615,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>22.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7672,14 +7652,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53814-2024</t>
+          <t>A 54190-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45615</v>
+        <v>45964.57034722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7692,7 +7672,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7729,14 +7709,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10052-2021</t>
+          <t>A 53362-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44256</v>
+        <v>45614</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7749,7 +7729,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7786,14 +7766,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 55984-2024</t>
+          <t>A 60290-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45623</v>
+        <v>45642.97949074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7806,7 +7786,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7843,14 +7823,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56419-2024</t>
+          <t>A 54191-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45623</v>
+        <v>45964.57228009259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7863,7 +7843,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7900,14 +7880,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55897-2024</t>
+          <t>A 35112-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45622</v>
+        <v>45529.81975694445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7920,7 +7900,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7957,14 +7937,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 34332-2025</t>
+          <t>A 54826-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45846.44829861111</v>
+        <v>45966.66918981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7977,7 +7957,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8014,14 +7994,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26356-2025</t>
+          <t>A 19759-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45805.8687037037</v>
+        <v>45432.69586805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8034,7 +8014,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8071,14 +8051,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 59069-2023</t>
+          <t>A 56413-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45252</v>
+        <v>45623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8091,7 +8071,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8128,14 +8108,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50577-2024</t>
+          <t>A 1949-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45601.60918981482</v>
+        <v>45672.34460648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8148,7 +8128,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8185,14 +8165,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 63778-2023</t>
+          <t>A 696-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45278</v>
+        <v>45665.32771990741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8205,7 +8185,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8242,14 +8222,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13530-2023</t>
+          <t>A 34779-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45006.38202546296</v>
+        <v>45141.53666666667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8262,7 +8242,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8299,14 +8279,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5577-2023</t>
+          <t>A 36835-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44960.49412037037</v>
+        <v>45538.52260416667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,8 +8298,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8356,14 +8341,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60290-2024</t>
+          <t>A 58393-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45642.97949074074</v>
+        <v>44901</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8376,7 +8361,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8413,14 +8398,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36201-2025</t>
+          <t>A 56841-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45867.44418981481</v>
+        <v>45978.48229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8433,7 +8418,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8470,14 +8455,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 36208-2025</t>
+          <t>A 2872-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45867.46184027778</v>
+        <v>44945.44319444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8490,7 +8475,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8527,14 +8512,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61405-2025</t>
+          <t>A 11949-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46001</v>
+        <v>44994</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,13 +8531,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8589,14 +8569,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 28776-2021</t>
+          <t>A 54582-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44357</v>
+        <v>45233</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8609,7 +8589,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>27.5</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8646,14 +8626,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37125-2025</t>
+          <t>A 54279-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45875.52809027778</v>
+        <v>45232.69478009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8703,14 +8683,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37299-2025</t>
+          <t>A 36816-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45876.5759375</v>
+        <v>45538.4906712963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,8 +8702,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8760,14 +8745,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37195-2025</t>
+          <t>A 55984-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45875.66164351852</v>
+        <v>45623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8780,7 +8765,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8817,14 +8802,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7088-2025</t>
+          <t>A 35047-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45701.72737268519</v>
+        <v>45527.64486111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8837,7 +8822,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8874,14 +8859,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12175-2023</t>
+          <t>A 61405-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44998.54354166667</v>
+        <v>46001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,8 +8878,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8931,14 +8921,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6907-2023</t>
+          <t>A 25322-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44967</v>
+        <v>45462.77667824074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8951,7 +8941,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8988,14 +8978,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 27117-2022</t>
+          <t>A 17469-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44741</v>
+        <v>45757.47178240741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9008,7 +8998,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9045,14 +9035,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 62527-2021</t>
+          <t>A 19087-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44503</v>
+        <v>45767.38868055555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9065,7 +9055,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>22.6</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9102,14 +9092,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 23349-2021</t>
+          <t>A 31596-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44333</v>
+        <v>45506.38613425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,8 +9111,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9159,14 +9154,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48411-2022</t>
+          <t>A 59155-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44858</v>
+        <v>45988.53849537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9216,14 +9211,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59155-2025</t>
+          <t>A 52999-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45988.53849537037</v>
+        <v>45226</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9236,7 +9231,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9273,14 +9268,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16976-2025</t>
+          <t>A 62335-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45755.47385416667</v>
+        <v>46006.75179398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,8 +9287,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9330,14 +9330,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 19087-2025</t>
+          <t>A 53273-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45767.38868055555</v>
+        <v>45229</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9387,14 +9387,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62335-2025</t>
+          <t>A 23349-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46006.75179398148</v>
+        <v>44333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,13 +9406,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9449,14 +9444,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 1949-2025</t>
+          <t>A 24759-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45672.34460648148</v>
+        <v>45084.62170138889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9469,7 +9464,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9513,7 +9508,7 @@
         <v>46050.64065972222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9568,14 +9563,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62541-2021</t>
+          <t>A 240-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44503.61209490741</v>
+        <v>45660.40756944445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9588,7 +9583,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9625,14 +9620,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 17469-2025</t>
+          <t>A 52853-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45757.47178240741</v>
+        <v>45226.44390046296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9645,7 +9640,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9682,14 +9677,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11691-2025</t>
+          <t>A 7212-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45727.56306712963</v>
+        <v>45702</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9702,7 +9697,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9739,14 +9734,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13441-2024</t>
+          <t>A 32395-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45387</v>
+        <v>45120</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,13 +9753,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9801,14 +9791,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 25096-2023</t>
+          <t>A 6080-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45086.36361111111</v>
+        <v>44964</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9821,7 +9811,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9858,14 +9848,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 54582-2023</t>
+          <t>A 35202-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45233</v>
+        <v>45145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9878,7 +9868,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>11.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9915,14 +9905,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 58393-2022</t>
+          <t>A 7592-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44901</v>
+        <v>46061.87305555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9935,7 +9925,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9972,14 +9962,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 7592-2026</t>
+          <t>A 3251-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46061.87305555555</v>
+        <v>45679.5387962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9992,7 +9982,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10029,14 +10019,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11949-2023</t>
+          <t>A 5577-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44994</v>
+        <v>44960.49412037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10049,7 +10039,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10086,14 +10076,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 33209-2023</t>
+          <t>A 30484-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45127</v>
+        <v>45111.60274305556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10106,7 +10096,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10143,14 +10133,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 64506-2023</t>
+          <t>A 8950-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45280.97847222222</v>
+        <v>45357.44467592592</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10163,7 +10153,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10200,14 +10190,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8325-2026</t>
+          <t>A 46876-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46064</v>
+        <v>44851.61994212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10220,7 +10210,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10257,14 +10247,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8626-2024</t>
+          <t>A 13522-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45355</v>
+        <v>45006.35238425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10277,7 +10267,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>6.4</v>
+        <v>2.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10314,14 +10304,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6913-2023</t>
+          <t>A 8325-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44967</v>
+        <v>46064</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10334,7 +10324,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10371,14 +10361,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 44849-2024</t>
+          <t>A 8936-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45574.86268518519</v>
+        <v>46069.35884259259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10391,7 +10381,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10428,14 +10418,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62551-2021</t>
+          <t>A 56419-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44503.6196875</v>
+        <v>45623</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10448,7 +10438,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10485,14 +10475,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11795-2024</t>
+          <t>A 8626-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45375.3290625</v>
+        <v>45355</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10505,7 +10495,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10542,14 +10532,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 35047-2024</t>
+          <t>A 60112-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45527.64486111111</v>
+        <v>45642.57456018519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10562,7 +10552,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10599,14 +10589,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 39800-2022</t>
+          <t>A 31605-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44819.51783564815</v>
+        <v>45506.42094907408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10618,8 +10608,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10656,14 +10651,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 8936-2026</t>
+          <t>A 60118-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46069.35884259259</v>
+        <v>45642.58109953703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10676,7 +10671,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10713,14 +10708,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 30484-2023</t>
+          <t>A 62551-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45111.60274305556</v>
+        <v>44503.6196875</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10733,7 +10728,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10770,14 +10765,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 9738-2026</t>
+          <t>A 56542-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46072.50523148148</v>
+        <v>45625.56277777778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10790,7 +10785,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10827,14 +10822,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 35087-2024</t>
+          <t>A 9738-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45527.70637731482</v>
+        <v>46072.50523148148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10847,7 +10842,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10884,14 +10879,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 35112-2024</t>
+          <t>A 9887-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45529.81975694445</v>
+        <v>46073.35866898148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10904,7 +10899,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10941,14 +10936,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61312-2023</t>
+          <t>A 53814-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45264.56998842592</v>
+        <v>45615</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10961,7 +10956,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10998,14 +10993,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 246-2025</t>
+          <t>A 10524-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45660.4183449074</v>
+        <v>45366.53228009259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11018,7 +11013,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11055,14 +11050,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48301-2024</t>
+          <t>A 9422-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45590.47016203704</v>
+        <v>45359</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11075,7 +11070,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11112,14 +11107,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 30399-2023</t>
+          <t>A 45608-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45111.474375</v>
+        <v>44845.58590277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11132,7 +11127,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>17</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11169,14 +11164,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60465-2024</t>
+          <t>A 58672-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45643.61819444445</v>
+        <v>44902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11189,7 +11184,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11226,14 +11221,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 25322-2024</t>
+          <t>A 55897-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45462.77667824074</v>
+        <v>45622</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11246,7 +11241,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11283,14 +11278,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 35202-2023</t>
+          <t>A 11691-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45145</v>
+        <v>45727.56306712963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11303,7 +11298,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>11.1</v>
+        <v>4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11340,14 +11335,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53362-2024</t>
+          <t>A 10052-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45614</v>
+        <v>44256</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11360,7 +11355,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11397,14 +11392,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31596-2024</t>
+          <t>A 41163-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45506.38613425926</v>
+        <v>45174</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11416,13 +11411,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11459,14 +11449,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 40257-2023</t>
+          <t>A 13441-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45169.50835648148</v>
+        <v>45387</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11478,8 +11468,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11516,14 +11511,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 19759-2024</t>
+          <t>A 40257-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45432.69586805555</v>
+        <v>45169.50835648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11536,7 +11531,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11573,14 +11568,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56542-2024</t>
+          <t>A 36622-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45625.56277777778</v>
+        <v>45153.50684027778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11593,7 +11588,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11630,14 +11625,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24759-2023</t>
+          <t>A 62541-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45084.62170138889</v>
+        <v>44503.61209490741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11650,7 +11645,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11687,14 +11682,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 37169-2022</t>
+          <t>A 28850-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44806.60627314815</v>
+        <v>45478</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11707,7 +11702,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>17.4</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11744,14 +11739,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60118-2024</t>
+          <t>A 44849-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45642.58109953703</v>
+        <v>45574.86268518519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11764,7 +11759,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11801,14 +11796,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 53769-2024</t>
+          <t>A 59644-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45615.52787037037</v>
+        <v>45254</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11821,7 +11816,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11858,14 +11853,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 696-2025</t>
+          <t>A 56365-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45665.32771990741</v>
+        <v>45625.32438657407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11878,7 +11873,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11915,14 +11910,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 60642-2023</t>
+          <t>A 6940-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45260</v>
+        <v>45343</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11935,7 +11930,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11972,14 +11967,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 240-2025</t>
+          <t>A 40291-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45660.40756944445</v>
+        <v>45554.68796296296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11992,7 +11987,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12029,14 +12024,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 44308-2023</t>
+          <t>A 33209-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45188.64850694445</v>
+        <v>45127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12049,7 +12044,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12086,14 +12081,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54279-2023</t>
+          <t>A 53764-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45232.69478009259</v>
+        <v>45615</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12106,7 +12101,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12143,14 +12138,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 7212-2025</t>
+          <t>A 7088-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45702</v>
+        <v>45701.72737268519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12163,7 +12158,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12200,14 +12195,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 8953-2023</t>
+          <t>A 44308-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44979.47184027778</v>
+        <v>45188.64850694445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12220,7 +12215,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12257,14 +12252,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59644-2023</t>
+          <t>A 6913-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45254</v>
+        <v>44967</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12277,7 +12272,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12314,14 +12309,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6080-2023</t>
+          <t>A 13530-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44964</v>
+        <v>45006.38202546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12334,7 +12329,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12371,14 +12366,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59010-2024</t>
+          <t>A 35087-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45635</v>
+        <v>45527.70637731482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12391,7 +12386,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12428,14 +12423,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 58620-2022</t>
+          <t>A 53769-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44902.59869212963</v>
+        <v>45615.52787037037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12448,7 +12443,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12485,14 +12480,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6898-2023</t>
+          <t>A 6102-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44967</v>
+        <v>44964</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12505,7 +12500,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>18</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12542,14 +12537,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 34779-2023</t>
+          <t>A 18768-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45141.53666666667</v>
+        <v>45426.5609837963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12562,7 +12557,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12599,14 +12594,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60112-2024</t>
+          <t>A 56740-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45642.57456018519</v>
+        <v>45244.3609375</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12619,7 +12614,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12656,14 +12651,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 53279-2023</t>
+          <t>A 43460-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45229</v>
+        <v>45568.70137731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12676,7 +12671,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12713,14 +12708,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 6102-2023</t>
+          <t>A 59010-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44964</v>
+        <v>45635</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12733,7 +12728,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12770,14 +12765,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 43460-2024</t>
+          <t>A 20614-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45568.70137731481</v>
+        <v>45776.25559027777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12790,7 +12785,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12827,14 +12822,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 13522-2023</t>
+          <t>A 61817-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45006.35238425926</v>
+        <v>45649.60460648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12847,7 +12842,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12884,14 +12879,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 25762-2023</t>
+          <t>A 9973-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45090.4546412037</v>
+        <v>45363.68083333333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12904,7 +12899,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12941,14 +12936,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2872-2023</t>
+          <t>A 56373-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44945.44319444444</v>
+        <v>45625.3313425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12961,7 +12956,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12998,14 +12993,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 46876-2022</t>
+          <t>A 9083-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44851.61994212963</v>
+        <v>45713.66717592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13018,7 +13013,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13055,14 +13050,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 1455-2025</t>
+          <t>A 22877-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45670.31842592593</v>
+        <v>45790.37597222222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13075,7 +13070,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13112,14 +13107,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 48346-2024</t>
+          <t>A 53805-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45590.55582175926</v>
+        <v>45615</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13132,7 +13127,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13169,14 +13164,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 36835-2024</t>
+          <t>A 8768-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45538.52260416667</v>
+        <v>45712.5903587963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13188,13 +13183,8 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13231,14 +13221,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 32952-2023</t>
+          <t>A 22922-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45125.49396990741</v>
+        <v>45790.44003472223</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13251,7 +13241,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13288,14 +13278,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 3251-2025</t>
+          <t>A 11393-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45679.5387962963</v>
+        <v>45726.57238425926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13308,7 +13298,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13345,14 +13335,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 2086-2025</t>
+          <t>A 11387-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45672.59024305556</v>
+        <v>45726.56342592592</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13365,7 +13355,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13402,14 +13392,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 30904-2022</t>
+          <t>A 24353-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44767</v>
+        <v>45797.58983796297</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13422,7 +13412,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13459,14 +13449,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 56740-2023</t>
+          <t>A 24242-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45244.3609375</v>
+        <v>45797.38863425926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13479,7 +13469,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13516,14 +13506,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 52853-2023</t>
+          <t>A 24234-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45226.44390046296</v>
+        <v>45797.3800462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13536,7 +13526,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13573,14 +13563,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 55974-2024</t>
+          <t>A 24356-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45623</v>
+        <v>45797.59305555555</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13593,7 +13583,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13630,14 +13620,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 53764-2024</t>
+          <t>A 53275-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45615</v>
+        <v>45229</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13650,7 +13640,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13687,14 +13677,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 41163-2023</t>
+          <t>A 24352-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45174</v>
+        <v>45797.58431712963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13707,7 +13697,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13744,14 +13734,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 7223-2025</t>
+          <t>A 44104-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45702.48797453703</v>
+        <v>45572.62975694444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13764,7 +13754,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13801,14 +13791,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 15802-2024</t>
+          <t>A 11563-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45404</v>
+        <v>45727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13820,8 +13810,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13858,14 +13853,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 56365-2024</t>
+          <t>A 19840-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45625.32438657407</v>
+        <v>45771</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13878,7 +13873,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13915,14 +13910,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 52999-2023</t>
+          <t>A 62629-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45226</v>
+        <v>44925</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13935,7 +13930,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13972,14 +13967,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 7760-2025</t>
+          <t>A 58420-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45706.54024305556</v>
+        <v>45250</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13992,7 +13987,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>8.300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14026,17 +14021,17 @@
       </c>
       <c r="R231" s="2" t="inlineStr"/>
     </row>
-    <row r="232">
+    <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56413-2024</t>
+          <t>A 36945-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45623</v>
+        <v>45538.69571759259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14048,8 +14043,13 @@
           <t>LIDKÖPING</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14082,6 +14082,63 @@
         <v>0</v>
       </c>
       <c r="R232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>A 17892-2025</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>45758.68318287037</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>LIDKÖPING</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LIDKÖPING.xlsx
+++ b/Översikt LIDKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44299</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45202.50942129629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45478.77283564815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45400</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44781</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45702.58821759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45649.61065972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44788</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>44466</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44831.66313657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44820.41811342593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44714.47053240741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44566</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44546.5565625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44627</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44627.49730324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>44725.46222222222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>44293</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>44487.55363425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>44446</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44487.40418981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44341</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44341</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44806.59059027778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44742.36770833333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44515.64600694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44438.91945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44614</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44293</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44747.41405092592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44967</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44974</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>45643.61819444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>45260</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>45590.47016203704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         <v>45702.55347222222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>45111.474375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>45189.83261574074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45375.3290625</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45590.55582175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44819.51783564815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44859</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>44357</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>45278</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>45229</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44858</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>44928.51184027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45885.05005787037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>45611.58608796296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44902.59869212963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45670.31842592593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44806.60627314815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>45824.65635416667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>45702.48797453703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>45824.84045138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>45252</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45702.55677083333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45404</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45826.32145833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45601.60918981482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>45896.54557870371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45090.4546412037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45834.60144675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45834.58232638889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45747.40619212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45898.39010416667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>45086.36361111111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45903.4413425926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>45125.49396990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45837.53755787037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>45837.55134259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45904.46631944444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>45906.38402777778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45252</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45280.97847222222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>45184.35591435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45805.8687037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>45846.44829861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>45916.45898148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45264.56998842592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45924.54122685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45867.44418981481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45867.46184027778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45875.66164351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45875.52809027778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>45876.5759375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44924</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44642</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>45642.89546296297</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44767</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44967</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>44998.54354166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>45940.59814814815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>45943.09372685185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>45940.60710648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>45943.08944444444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45943.09143518518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>45944.53710648148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44979.47184027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>45755.47385416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>45660.4183449074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>45957.3331712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>45954.87305555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>45706.54024305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>45958.7215625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>45958.718125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>45672.59024305556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>45964.57034722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45614</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>45642.97949074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>45964.57228009259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>45529.81975694445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>45966.66918981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>45432.69586805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>45623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>45672.34460648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>45665.32771990741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>45141.53666666667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>45538.52260416667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44901</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45978.48229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44945.44319444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44994</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45233</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45232.69478009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45538.4906712963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45623</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45527.64486111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>46001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45462.77667824074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45757.47178240741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45767.38868055555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45506.38613425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45988.53849537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45226</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>46006.75179398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45229</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45084.62170138889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>46050.64065972222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45660.40756944445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45226.44390046296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>45702</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45120</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>44964</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>46061.87305555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45679.5387962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44960.49412037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45111.60274305556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45357.44467592592</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>44851.61994212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45006.35238425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>46064</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>46069.35884259259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45623</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45355</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45642.57456018519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>45506.42094907408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45642.58109953703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44503.6196875</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45625.56277777778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>46072.50523148148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>46073.35866898148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45615</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45366.53228009259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45359</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44845.58590277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45622</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45727.56306712963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44256</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45174</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45387</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45169.50835648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45153.50684027778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44503.61209490741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45478</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45574.86268518519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>45254</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45625.32438657407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>45343</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45554.68796296296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45615</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45701.72737268519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45188.64850694445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44967</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45006.38202546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45527.70637731482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45615.52787037037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44964</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>45426.5609837963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45244.3609375</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45568.70137731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45635</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45776.25559027777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45649.60460648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45363.68083333333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>45625.3313425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>45713.66717592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>45790.37597222222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>45615</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>45712.5903587963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>45790.44003472223</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>45726.57238425926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45726.56342592592</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>45797.58983796297</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45797.38863425926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45797.3800462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45797.59305555555</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>45229</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>45797.58431712963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>45572.62975694444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>45727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>45771</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>44925</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45250</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45538.69571759259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45758.68318287037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
